--- a/bca20.xlsx
+++ b/bca20.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="226">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -516,9 +516,6 @@
     <t xml:space="preserve">Miami Heat</t>
   </si>
   <si>
-    <t xml:space="preserve">1(1/5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chelsea</t>
   </si>
   <si>
@@ -529,6 +526,270 @@
   </si>
   <si>
     <t xml:space="preserve">Chelsea Arsenal 2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasuri + random shittiä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajlaz Bedene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernests Gulbis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus Blue Jackets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnipeg Jets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Vedder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rushri Wijesundera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leicester &amp; Tottenham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham -1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis Grizzlies +4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toronto Raptors -8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toronto Raptors -6.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Toronto 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> half -3.5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis Grizzlies+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis Grizzlies +3.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Memphis Grizzlies 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quarter +2.5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis Grizzlies ML</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Memphis Grizzlies 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> half U113.5p</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis Grizzlies EVEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston Celtics -8.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Boston celtics 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quarter -4.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Celtics 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> half -6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Celtics 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> quarter -4.5</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Game</t>
@@ -611,6 +872,15 @@
   <si>
     <t xml:space="preserve">Tome of Madness</t>
   </si>
+  <si>
+    <t xml:space="preserve">Dracula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pelaa 10e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.45</t>
+  </si>
 </sst>
 </file>
 
@@ -628,7 +898,7 @@
     <numFmt numFmtId="172" formatCode="HH\/MM\/SS;@"/>
     <numFmt numFmtId="173" formatCode="[$€-8076]\ #,##0.00;[RED]\-[$€-8076]\ #,##0.00"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -913,6 +1183,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF00EBFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1479,11 +1757,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1491,23 +1769,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1519,7 +1797,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1955,11 +2233,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H168" activeCellId="0" sqref="H168"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H182" activeCellId="0" sqref="H182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.86"/>
@@ -2080,7 +2358,7 @@
       </c>
       <c r="T2" s="31" t="n">
         <f aca="false">SUM(M2:M4000)</f>
-        <v>307.0316</v>
+        <v>420.8816</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="21" t="s">
@@ -2194,7 +2472,7 @@
       </c>
       <c r="T4" s="33" t="n">
         <f aca="false">SUM(T2+T3)</f>
-        <v>307.0316</v>
+        <v>420.8816</v>
       </c>
       <c r="U4" s="33"/>
       <c r="V4" s="21" t="s">
@@ -6649,7 +6927,7 @@
       </c>
       <c r="M101" s="31" t="n">
         <f aca="false">SUM(I101:I173)</f>
-        <v>32.7924</v>
+        <v>72.1424</v>
       </c>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
@@ -6705,7 +6983,7 @@
       </c>
       <c r="M102" s="31" t="n">
         <f aca="false">SUM(M2+M28+M101)</f>
-        <v>82.1985</v>
+        <v>121.5485</v>
       </c>
       <c r="N102" s="31"/>
       <c r="O102" s="22"/>
@@ -9080,7 +9358,7 @@
       </c>
       <c r="M154" s="31" t="n">
         <f aca="false">SUM(I154:I226)</f>
-        <v>-6.55</v>
+        <v>-8.65000000000001</v>
       </c>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
@@ -9132,7 +9410,7 @@
       </c>
       <c r="M155" s="31" t="n">
         <f aca="false">SUM(M2+M28+M101+M154)</f>
-        <v>75.6485</v>
+        <v>112.8985</v>
       </c>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
@@ -9409,7 +9687,7 @@
         <v>60</v>
       </c>
       <c r="J161" s="39" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="K161" s="20"/>
       <c r="L161" s="22"/>
@@ -9482,7 +9760,7 @@
         <v>58</v>
       </c>
       <c r="D163" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E163" s="40" t="n">
         <v>0.927083333333333</v>
@@ -9572,7 +9850,7 @@
         <v>19</v>
       </c>
       <c r="D165" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E165" s="40" t="n">
         <v>0.927083333333333</v>
@@ -9617,7 +9895,7 @@
         <v>19</v>
       </c>
       <c r="D166" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E166" s="40" t="n">
         <v>0.927083333333333</v>
@@ -9662,7 +9940,7 @@
         <v>19</v>
       </c>
       <c r="D167" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E167" s="40" t="n">
         <v>0.927083333333333</v>
@@ -9698,20 +9976,36 @@
       <c r="Y167" s="22"/>
       <c r="Z167" s="22"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="36"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="42"/>
+    <row r="168" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="36" t="n">
+        <v>43852</v>
+      </c>
+      <c r="B168" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F168" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G168" s="42" t="n">
+        <v>5</v>
+      </c>
       <c r="H168" s="43"/>
       <c r="I168" s="44" t="str">
         <f aca="false">_xlfn.IFS(H168="W", F168*G168-F168, H168="L", -F168, H168="V", 0, H168="","")</f>
         <v/>
       </c>
-      <c r="J168" s="39"/>
+      <c r="J168" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="K168" s="20"/>
       <c r="L168" s="22"/>
       <c r="M168" s="22"/>
@@ -9729,20 +10023,34 @@
       <c r="Y168" s="22"/>
       <c r="Z168" s="22"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="36"/>
-      <c r="B169" s="37"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="40"/>
-      <c r="F169" s="41"/>
-      <c r="G169" s="42"/>
+      <c r="B169" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F169" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G169" s="42" t="n">
+        <v>4.75</v>
+      </c>
       <c r="H169" s="43"/>
       <c r="I169" s="44" t="str">
         <f aca="false">_xlfn.IFS(H169="W", F169*G169-F169, H169="L", -F169, H169="V", 0, H169="","")</f>
         <v/>
       </c>
-      <c r="J169" s="39"/>
+      <c r="J169" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="K169" s="20"/>
       <c r="L169" s="22"/>
       <c r="M169" s="22"/>
@@ -9760,14 +10068,26 @@
       <c r="Y169" s="22"/>
       <c r="Z169" s="22"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="36"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="38"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="42"/>
+      <c r="B170" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D170" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F170" s="41" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G170" s="42" t="n">
+        <v>1.64</v>
+      </c>
       <c r="H170" s="43"/>
       <c r="I170" s="44" t="str">
         <f aca="false">_xlfn.IFS(H170="W", F170*G170-F170, H170="L", -F170, H170="V", 0, H170="","")</f>
@@ -9791,18 +10111,32 @@
       <c r="Y170" s="22"/>
       <c r="Z170" s="22"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="36"/>
-      <c r="B171" s="37"/>
-      <c r="C171" s="38"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="40"/>
-      <c r="F171" s="41"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="43"/>
-      <c r="I171" s="44" t="str">
+      <c r="B171" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E171" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F171" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G171" s="42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H171" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="44" t="n">
         <f aca="false">_xlfn.IFS(H171="W", F171*G171-F171, H171="L", -F171, H171="V", 0, H171="","")</f>
-        <v/>
+        <v>-20</v>
       </c>
       <c r="J171" s="39"/>
       <c r="K171" s="20"/>
@@ -9822,18 +10156,32 @@
       <c r="Y171" s="22"/>
       <c r="Z171" s="22"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="36"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="40"/>
-      <c r="F172" s="41"/>
-      <c r="G172" s="42"/>
-      <c r="H172" s="43"/>
-      <c r="I172" s="44" t="str">
+      <c r="B172" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E172" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F172" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G172" s="42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H172" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I172" s="44" t="n">
         <f aca="false">_xlfn.IFS(H172="W", F172*G172-F172, H172="L", -F172, H172="V", 0, H172="","")</f>
-        <v/>
+        <v>27.5</v>
       </c>
       <c r="J172" s="39"/>
       <c r="K172" s="20"/>
@@ -9853,18 +10201,32 @@
       <c r="Y172" s="22"/>
       <c r="Z172" s="22"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="36"/>
-      <c r="B173" s="37"/>
-      <c r="C173" s="38"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="40"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="43"/>
-      <c r="I173" s="44" t="str">
+      <c r="B173" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D173" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F173" s="41" t="n">
+        <v>13</v>
+      </c>
+      <c r="G173" s="42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H173" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I173" s="44" t="n">
         <f aca="false">_xlfn.IFS(H173="W", F173*G173-F173, H173="L", -F173, H173="V", 0, H173="","")</f>
-        <v/>
+        <v>31.85</v>
       </c>
       <c r="J173" s="39"/>
       <c r="K173" s="20"/>
@@ -9884,20 +10246,36 @@
       <c r="Y173" s="22"/>
       <c r="Z173" s="22"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="36"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="38"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="41"/>
-      <c r="G174" s="42"/>
-      <c r="H174" s="43"/>
-      <c r="I174" s="44" t="str">
+      <c r="B174" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F174" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="44" t="n">
         <f aca="false">_xlfn.IFS(H174="W", F174*G174-F174, H174="L", -F174, H174="V", 0, H174="","")</f>
-        <v/>
-      </c>
-      <c r="J174" s="39"/>
+        <v>-20</v>
+      </c>
+      <c r="J174" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="K174" s="20"/>
       <c r="L174" s="22"/>
       <c r="M174" s="22"/>
@@ -9915,20 +10293,36 @@
       <c r="Y174" s="22"/>
       <c r="Z174" s="22"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="36"/>
-      <c r="B175" s="37"/>
-      <c r="C175" s="38"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="41"/>
-      <c r="G175" s="42"/>
-      <c r="H175" s="43"/>
-      <c r="I175" s="44" t="str">
+      <c r="B175" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F175" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H175" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="44" t="n">
         <f aca="false">_xlfn.IFS(H175="W", F175*G175-F175, H175="L", -F175, H175="V", 0, H175="","")</f>
-        <v/>
-      </c>
-      <c r="J175" s="39"/>
+        <v>-20</v>
+      </c>
+      <c r="J175" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="K175" s="20"/>
       <c r="L175" s="22"/>
       <c r="M175" s="22"/>
@@ -9946,18 +10340,32 @@
       <c r="Y175" s="22"/>
       <c r="Z175" s="22"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="36"/>
-      <c r="B176" s="37"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="41"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="43"/>
-      <c r="I176" s="44" t="str">
+      <c r="B176" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F176" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" s="42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H176" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I176" s="44" t="n">
         <f aca="false">_xlfn.IFS(H176="W", F176*G176-F176, H176="L", -F176, H176="V", 0, H176="","")</f>
-        <v/>
+        <v>1.2</v>
       </c>
       <c r="J176" s="39"/>
       <c r="K176" s="20"/>
@@ -9977,14 +10385,26 @@
       <c r="Y176" s="22"/>
       <c r="Z176" s="22"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="36"/>
-      <c r="B177" s="37"/>
-      <c r="C177" s="38"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="40"/>
-      <c r="F177" s="41"/>
-      <c r="G177" s="42"/>
+      <c r="B177" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E177" s="40" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F177" s="41" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="G177" s="42" t="n">
+        <v>1.62</v>
+      </c>
       <c r="H177" s="43"/>
       <c r="I177" s="44" t="str">
         <f aca="false">_xlfn.IFS(H177="W", F177*G177-F177, H177="L", -F177, H177="V", 0, H177="","")</f>
@@ -10008,20 +10428,34 @@
       <c r="Y177" s="22"/>
       <c r="Z177" s="22"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="36"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="38"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="40"/>
-      <c r="F178" s="41"/>
-      <c r="G178" s="42"/>
+      <c r="B178" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C178" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D178" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E178" s="40" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F178" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G178" s="42" t="n">
+        <v>2.3</v>
+      </c>
       <c r="H178" s="43"/>
       <c r="I178" s="44" t="str">
         <f aca="false">_xlfn.IFS(H178="W", F178*G178-F178, H178="L", -F178, H178="V", 0, H178="","")</f>
         <v/>
       </c>
-      <c r="J178" s="39"/>
+      <c r="J178" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="K178" s="20"/>
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
@@ -10039,14 +10473,26 @@
       <c r="Y178" s="22"/>
       <c r="Z178" s="22"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="36"/>
-      <c r="B179" s="37"/>
-      <c r="C179" s="38"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="41"/>
-      <c r="G179" s="42"/>
+      <c r="B179" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E179" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F179" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" s="42" t="n">
+        <v>1.83</v>
+      </c>
       <c r="H179" s="43"/>
       <c r="I179" s="44" t="str">
         <f aca="false">_xlfn.IFS(H179="W", F179*G179-F179, H179="L", -F179, H179="V", 0, H179="","")</f>
@@ -10070,14 +10516,26 @@
       <c r="Y179" s="22"/>
       <c r="Z179" s="22"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="36"/>
-      <c r="B180" s="37"/>
-      <c r="C180" s="38"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="40"/>
-      <c r="F180" s="41"/>
-      <c r="G180" s="42"/>
+      <c r="B180" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E180" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F180" s="41" t="n">
+        <v>29</v>
+      </c>
+      <c r="G180" s="42" t="n">
+        <v>1.85</v>
+      </c>
       <c r="H180" s="43"/>
       <c r="I180" s="44" t="str">
         <f aca="false">_xlfn.IFS(H180="W", F180*G180-F180, H180="L", -F180, H180="V", 0, H180="","")</f>
@@ -10101,20 +10559,34 @@
       <c r="Y180" s="22"/>
       <c r="Z180" s="22"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36"/>
-      <c r="B181" s="37"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="40"/>
-      <c r="F181" s="41"/>
-      <c r="G181" s="42"/>
+      <c r="B181" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F181" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G181" s="42" t="n">
+        <v>4.5</v>
+      </c>
       <c r="H181" s="43"/>
       <c r="I181" s="44" t="str">
         <f aca="false">_xlfn.IFS(H181="W", F181*G181-F181, H181="L", -F181, H181="V", 0, H181="","")</f>
         <v/>
       </c>
-      <c r="J181" s="39"/>
+      <c r="J181" s="39" t="s">
+        <v>176</v>
+      </c>
       <c r="K181" s="20"/>
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
@@ -10132,20 +10604,34 @@
       <c r="Y181" s="22"/>
       <c r="Z181" s="22"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="36"/>
-      <c r="B182" s="37"/>
-      <c r="C182" s="38"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="40"/>
-      <c r="F182" s="41"/>
-      <c r="G182" s="42"/>
+      <c r="B182" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E182" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F182" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G182" s="42" t="n">
+        <v>3.75</v>
+      </c>
       <c r="H182" s="43"/>
       <c r="I182" s="44" t="str">
         <f aca="false">_xlfn.IFS(H182="W", F182*G182-F182, H182="L", -F182, H182="V", 0, H182="","")</f>
         <v/>
       </c>
-      <c r="J182" s="39"/>
+      <c r="J182" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="K182" s="20"/>
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
@@ -10163,14 +10649,26 @@
       <c r="Y182" s="22"/>
       <c r="Z182" s="22"/>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="36"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="38"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="40"/>
-      <c r="F183" s="41"/>
-      <c r="G183" s="42"/>
+      <c r="B183" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E183" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F183" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G183" s="42" t="n">
+        <v>3.6</v>
+      </c>
       <c r="H183" s="43"/>
       <c r="I183" s="44" t="str">
         <f aca="false">_xlfn.IFS(H183="W", F183*G183-F183, H183="L", -F183, H183="V", 0, H183="","")</f>
@@ -10194,18 +10692,32 @@
       <c r="Y183" s="22"/>
       <c r="Z183" s="22"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="36"/>
-      <c r="B184" s="37"/>
-      <c r="C184" s="38"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="40"/>
-      <c r="F184" s="41"/>
-      <c r="G184" s="42"/>
-      <c r="H184" s="43"/>
-      <c r="I184" s="44" t="str">
+      <c r="B184" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C184" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D184" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" s="40" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="F184" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G184" s="42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H184" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I184" s="44" t="n">
         <f aca="false">_xlfn.IFS(H184="W", F184*G184-F184, H184="L", -F184, H184="V", 0, H184="","")</f>
-        <v/>
+        <v>7.2</v>
       </c>
       <c r="J184" s="39"/>
       <c r="K184" s="20"/>
@@ -10225,20 +10737,36 @@
       <c r="Y184" s="22"/>
       <c r="Z184" s="22"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="36"/>
-      <c r="B185" s="37"/>
-      <c r="C185" s="38"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="40"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="42"/>
-      <c r="H185" s="43"/>
-      <c r="I185" s="44" t="str">
+      <c r="B185" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C185" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E185" s="40" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="F185" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G185" s="42" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H185" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I185" s="44" t="n">
         <f aca="false">_xlfn.IFS(H185="W", F185*G185-F185, H185="L", -F185, H185="V", 0, H185="","")</f>
-        <v/>
-      </c>
-      <c r="J185" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="39" t="s">
+        <v>133</v>
+      </c>
       <c r="K185" s="20"/>
       <c r="L185" s="22"/>
       <c r="M185" s="22"/>
@@ -10256,18 +10784,32 @@
       <c r="Y185" s="22"/>
       <c r="Z185" s="22"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="36"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="38"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="40"/>
-      <c r="F186" s="41"/>
-      <c r="G186" s="42"/>
-      <c r="H186" s="43"/>
-      <c r="I186" s="44" t="str">
+      <c r="B186" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D186" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E186" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F186" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G186" s="42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H186" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I186" s="44" t="n">
         <f aca="false">_xlfn.IFS(H186="W", F186*G186-F186, H186="L", -F186, H186="V", 0, H186="","")</f>
-        <v/>
+        <v>5.15</v>
       </c>
       <c r="J186" s="39"/>
       <c r="K186" s="20"/>
@@ -10287,14 +10829,26 @@
       <c r="Y186" s="22"/>
       <c r="Z186" s="22"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="36"/>
-      <c r="B187" s="37"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="40"/>
-      <c r="F187" s="41"/>
-      <c r="G187" s="42"/>
+      <c r="B187" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E187" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F187" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G187" s="42" t="n">
+        <v>3.6</v>
+      </c>
       <c r="H187" s="43"/>
       <c r="I187" s="44" t="str">
         <f aca="false">_xlfn.IFS(H187="W", F187*G187-F187, H187="L", -F187, H187="V", 0, H187="","")</f>
@@ -10318,18 +10872,32 @@
       <c r="Y187" s="22"/>
       <c r="Z187" s="22"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="36"/>
-      <c r="B188" s="37"/>
-      <c r="C188" s="38"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="40"/>
-      <c r="F188" s="41"/>
-      <c r="G188" s="42"/>
-      <c r="H188" s="43"/>
-      <c r="I188" s="44" t="str">
+      <c r="B188" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E188" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F188" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G188" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="44" t="n">
         <f aca="false">_xlfn.IFS(H188="W", F188*G188-F188, H188="L", -F188, H188="V", 0, H188="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J188" s="39"/>
       <c r="K188" s="20"/>
@@ -10349,18 +10917,32 @@
       <c r="Y188" s="22"/>
       <c r="Z188" s="22"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="36"/>
-      <c r="B189" s="37"/>
-      <c r="C189" s="38"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="41"/>
-      <c r="G189" s="42"/>
-      <c r="H189" s="43"/>
-      <c r="I189" s="44" t="str">
+      <c r="B189" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E189" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F189" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G189" s="42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="44" t="n">
         <f aca="false">_xlfn.IFS(H189="W", F189*G189-F189, H189="L", -F189, H189="V", 0, H189="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J189" s="39"/>
       <c r="K189" s="20"/>
@@ -10380,18 +10962,32 @@
       <c r="Y189" s="22"/>
       <c r="Z189" s="22"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="38"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="40"/>
-      <c r="F190" s="41"/>
-      <c r="G190" s="42"/>
-      <c r="H190" s="43"/>
-      <c r="I190" s="44" t="str">
+      <c r="B190" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E190" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F190" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G190" s="42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H190" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I190" s="44" t="n">
         <f aca="false">_xlfn.IFS(H190="W", F190*G190-F190, H190="L", -F190, H190="V", 0, H190="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J190" s="39"/>
       <c r="K190" s="20"/>
@@ -10411,14 +11007,26 @@
       <c r="Y190" s="22"/>
       <c r="Z190" s="22"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="36"/>
-      <c r="B191" s="37"/>
-      <c r="C191" s="38"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="40"/>
-      <c r="F191" s="41"/>
-      <c r="G191" s="42"/>
+      <c r="B191" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E191" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F191" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G191" s="42" t="n">
+        <v>2.3</v>
+      </c>
       <c r="H191" s="43"/>
       <c r="I191" s="44" t="str">
         <f aca="false">_xlfn.IFS(H191="W", F191*G191-F191, H191="L", -F191, H191="V", 0, H191="","")</f>
@@ -10442,14 +11050,26 @@
       <c r="Y191" s="22"/>
       <c r="Z191" s="22"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="36"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="38"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="40"/>
-      <c r="F192" s="41"/>
-      <c r="G192" s="42"/>
+      <c r="B192" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E192" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F192" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G192" s="42" t="n">
+        <v>2.05</v>
+      </c>
       <c r="H192" s="43"/>
       <c r="I192" s="44" t="str">
         <f aca="false">_xlfn.IFS(H192="W", F192*G192-F192, H192="L", -F192, H192="V", 0, H192="","")</f>
@@ -10473,14 +11093,26 @@
       <c r="Y192" s="22"/>
       <c r="Z192" s="22"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="36"/>
-      <c r="B193" s="37"/>
-      <c r="C193" s="38"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="40"/>
-      <c r="F193" s="41"/>
-      <c r="G193" s="42"/>
+      <c r="B193" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E193" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F193" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G193" s="42" t="n">
+        <v>1.85</v>
+      </c>
       <c r="H193" s="43"/>
       <c r="I193" s="44" t="str">
         <f aca="false">_xlfn.IFS(H193="W", F193*G193-F193, H193="L", -F193, H193="V", 0, H193="","")</f>
@@ -10504,14 +11136,26 @@
       <c r="Y193" s="22"/>
       <c r="Z193" s="22"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="36"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="40"/>
-      <c r="F194" s="41"/>
-      <c r="G194" s="42"/>
+      <c r="B194" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E194" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F194" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G194" s="42" t="n">
+        <v>1.85</v>
+      </c>
       <c r="H194" s="43"/>
       <c r="I194" s="44" t="str">
         <f aca="false">_xlfn.IFS(H194="W", F194*G194-F194, H194="L", -F194, H194="V", 0, H194="","")</f>
@@ -10535,14 +11179,26 @@
       <c r="Y194" s="22"/>
       <c r="Z194" s="22"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="36"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="38"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="40"/>
-      <c r="F195" s="41"/>
-      <c r="G195" s="42"/>
+      <c r="B195" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E195" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F195" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G195" s="42" t="n">
+        <v>1.9</v>
+      </c>
       <c r="H195" s="43"/>
       <c r="I195" s="44" t="str">
         <f aca="false">_xlfn.IFS(H195="W", F195*G195-F195, H195="L", -F195, H195="V", 0, H195="","")</f>
@@ -10566,14 +11222,26 @@
       <c r="Y195" s="22"/>
       <c r="Z195" s="22"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="36"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="38"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="40"/>
-      <c r="F196" s="41"/>
-      <c r="G196" s="42"/>
+      <c r="B196" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E196" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F196" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G196" s="42" t="n">
+        <v>1.93</v>
+      </c>
       <c r="H196" s="43"/>
       <c r="I196" s="44" t="str">
         <f aca="false">_xlfn.IFS(H196="W", F196*G196-F196, H196="L", -F196, H196="V", 0, H196="","")</f>
@@ -10597,14 +11265,26 @@
       <c r="Y196" s="22"/>
       <c r="Z196" s="22"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="36"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="38"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="40"/>
-      <c r="F197" s="41"/>
-      <c r="G197" s="42"/>
+      <c r="B197" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E197" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F197" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G197" s="42" t="n">
+        <v>1.9</v>
+      </c>
       <c r="H197" s="43"/>
       <c r="I197" s="44" t="str">
         <f aca="false">_xlfn.IFS(H197="W", F197*G197-F197, H197="L", -F197, H197="V", 0, H197="","")</f>
@@ -10628,14 +11308,26 @@
       <c r="Y197" s="22"/>
       <c r="Z197" s="22"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="36"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="40"/>
-      <c r="F198" s="41"/>
-      <c r="G198" s="42"/>
+      <c r="B198" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E198" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F198" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G198" s="42" t="n">
+        <v>3.6</v>
+      </c>
       <c r="H198" s="43"/>
       <c r="I198" s="44" t="str">
         <f aca="false">_xlfn.IFS(H198="W", F198*G198-F198, H198="L", -F198, H198="V", 0, H198="","")</f>
@@ -10659,14 +11351,26 @@
       <c r="Y198" s="22"/>
       <c r="Z198" s="22"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="36"/>
-      <c r="B199" s="37"/>
-      <c r="C199" s="38"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="40"/>
-      <c r="F199" s="41"/>
-      <c r="G199" s="42"/>
+      <c r="B199" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E199" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F199" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G199" s="42" t="n">
+        <v>1.87</v>
+      </c>
       <c r="H199" s="43"/>
       <c r="I199" s="44" t="str">
         <f aca="false">_xlfn.IFS(H199="W", F199*G199-F199, H199="L", -F199, H199="V", 0, H199="","")</f>
@@ -10690,14 +11394,26 @@
       <c r="Y199" s="22"/>
       <c r="Z199" s="22"/>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="36"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="38"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="40"/>
-      <c r="F200" s="41"/>
-      <c r="G200" s="42"/>
+      <c r="B200" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E200" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F200" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G200" s="42" t="n">
+        <v>1.9</v>
+      </c>
       <c r="H200" s="43"/>
       <c r="I200" s="44" t="str">
         <f aca="false">_xlfn.IFS(H200="W", F200*G200-F200, H200="L", -F200, H200="V", 0, H200="","")</f>
@@ -10721,14 +11437,26 @@
       <c r="Y200" s="22"/>
       <c r="Z200" s="22"/>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="36"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="38"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="40"/>
-      <c r="F201" s="41"/>
-      <c r="G201" s="42"/>
+      <c r="B201" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D201" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E201" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F201" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G201" s="42" t="n">
+        <v>2.2</v>
+      </c>
       <c r="H201" s="43"/>
       <c r="I201" s="44" t="str">
         <f aca="false">_xlfn.IFS(H201="W", F201*G201-F201, H201="L", -F201, H201="V", 0, H201="","")</f>
@@ -10752,14 +11480,26 @@
       <c r="Y201" s="22"/>
       <c r="Z201" s="22"/>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="36"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="38"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="41"/>
-      <c r="G202" s="42"/>
+      <c r="B202" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D202" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E202" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F202" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G202" s="42" t="n">
+        <v>2.47</v>
+      </c>
       <c r="H202" s="43"/>
       <c r="I202" s="44" t="str">
         <f aca="false">_xlfn.IFS(H202="W", F202*G202-F202, H202="L", -F202, H202="V", 0, H202="","")</f>
@@ -10783,14 +11523,26 @@
       <c r="Y202" s="22"/>
       <c r="Z202" s="22"/>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="36"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="38"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="40"/>
-      <c r="F203" s="41"/>
-      <c r="G203" s="42"/>
+      <c r="B203" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D203" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F203" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G203" s="42" t="n">
+        <v>2.42</v>
+      </c>
       <c r="H203" s="43"/>
       <c r="I203" s="44" t="str">
         <f aca="false">_xlfn.IFS(H203="W", F203*G203-F203, H203="L", -F203, H203="V", 0, H203="","")</f>
@@ -10814,20 +11566,34 @@
       <c r="Y203" s="22"/>
       <c r="Z203" s="22"/>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="36"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="38"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="41"/>
-      <c r="G204" s="42"/>
+      <c r="B204" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D204" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E204" s="40" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F204" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G204" s="42" t="n">
+        <v>2.47</v>
+      </c>
       <c r="H204" s="43"/>
       <c r="I204" s="44" t="str">
         <f aca="false">_xlfn.IFS(H204="W", F204*G204-F204, H204="L", -F204, H204="V", 0, H204="","")</f>
         <v/>
       </c>
-      <c r="J204" s="39"/>
+      <c r="J204" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="K204" s="20"/>
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
@@ -35641,7 +36407,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49"/>
@@ -39055,10 +39821,10 @@
   <dimension ref="A1:Z505"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -39070,13 +39836,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -39116,13 +39882,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="D2" s="41" t="n">
         <v>2.34</v>
@@ -39145,7 +39911,7 @@
       </c>
       <c r="J2" s="60" t="n">
         <f aca="false">SUM(G2:G1000)</f>
-        <v>56.87</v>
+        <v>56.93</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -39166,13 +39932,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D3" s="41" t="n">
         <v>1.51</v>
@@ -39209,13 +39975,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D4" s="41" t="n">
         <v>0.4</v>
@@ -39254,13 +40020,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="D5" s="41" t="n">
         <v>10.24</v>
@@ -39297,13 +40063,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="D6" s="41" t="n">
         <v>2.14</v>
@@ -39340,13 +40106,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D7" s="41" t="n">
         <v>0.7</v>
@@ -39386,13 +40152,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D8" s="41" t="n">
         <v>1.47</v>
@@ -39429,13 +40195,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="D9" s="41" t="n">
         <v>17.31</v>
@@ -39476,7 +40242,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="D10" s="41" t="n">
         <v>10</v>
@@ -39513,13 +40279,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D11" s="41" t="n">
         <v>4.35</v>
@@ -39556,13 +40322,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D12" s="41" t="n">
         <v>0</v>
@@ -39602,13 +40368,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D13" s="41" t="n">
         <v>7.03</v>
@@ -39624,7 +40390,7 @@
         <v>7.03</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="I13" s="44" t="e">
         <f aca="false">_xlfn.IFS(H13="W", F13*G13-F13, H13="L", -F13, H13="V", 0, H13="","")</f>
@@ -39650,13 +40416,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D14" s="41" t="n">
         <v>0</v>
@@ -39672,7 +40438,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="I14" s="44" t="e">
         <f aca="false">_xlfn.IFS(H14="W", F14*G14-F14, H14="L", -F14, H14="V", 0, H14="","")</f>
@@ -39698,13 +40464,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D15" s="41" t="n">
         <v>2.75</v>
@@ -39720,7 +40486,7 @@
         <v>2.75</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I15" s="44" t="e">
         <f aca="false">_xlfn.IFS(H15="W", F15*G15-F15, H15="L", -F15, H15="V", 0, H15="","")</f>
@@ -39746,13 +40512,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D16" s="41" t="n">
         <v>0.24</v>
@@ -39792,13 +40558,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D17" s="41" t="n">
         <v>1.07</v>
@@ -39836,16 +40602,28 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="31" t="str">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E18" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="31" t="n">
         <f aca="false">_xlfn.IFS(F18="W", D18*E18-D18, F18="L", -D18, F18="V", 0, F18="","")</f>
-        <v/>
+        <v>1.4</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="44" t="e">
@@ -39870,18 +40648,32 @@
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="31" t="str">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="41" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E19" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="31" t="n">
         <f aca="false">_xlfn.IFS(F19="W", D19*E19-D19, F19="L", -D19, F19="V", 0, F19="","")</f>
-        <v/>
-      </c>
-      <c r="H19" s="43"/>
+        <v>-9.82</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>225</v>
+      </c>
       <c r="I19" s="44" t="e">
         <f aca="false">_xlfn.IFS(H19="W", F19*G19-F19, H19="L", -F19, H19="V", 0, H19="","")</f>
         <v>#VALUE!</v>
@@ -39904,16 +40696,28 @@
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="31" t="str">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="41" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="E20" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="31" t="n">
         <f aca="false">_xlfn.IFS(F20="W", D20*E20-D20, F20="L", -D20, F20="V", 0, F20="","")</f>
-        <v/>
+        <v>8.48</v>
       </c>
       <c r="H20" s="43"/>
       <c r="I20" s="44" t="e">

--- a/bca20.xlsx
+++ b/bca20.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="227">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -790,6 +790,9 @@
       </rPr>
       <t xml:space="preserve"> quarter -4.5</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves </t>
   </si>
   <si>
     <t xml:space="preserve">Game</t>
@@ -2233,11 +2236,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H182" activeCellId="0" sqref="H182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J206" activeCellId="0" sqref="J206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.86"/>
@@ -2358,7 +2361,7 @@
       </c>
       <c r="T2" s="31" t="n">
         <f aca="false">SUM(M2:M4000)</f>
-        <v>420.8816</v>
+        <v>540.4816</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="21" t="s">
@@ -2472,7 +2475,7 @@
       </c>
       <c r="T4" s="33" t="n">
         <f aca="false">SUM(T2+T3)</f>
-        <v>420.8816</v>
+        <v>540.4816</v>
       </c>
       <c r="U4" s="33"/>
       <c r="V4" s="21" t="s">
@@ -6927,7 +6930,7 @@
       </c>
       <c r="M101" s="31" t="n">
         <f aca="false">SUM(I101:I173)</f>
-        <v>72.1424</v>
+        <v>91.6624</v>
       </c>
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
@@ -6983,7 +6986,7 @@
       </c>
       <c r="M102" s="31" t="n">
         <f aca="false">SUM(M2+M28+M101)</f>
-        <v>121.5485</v>
+        <v>141.0685</v>
       </c>
       <c r="N102" s="31"/>
       <c r="O102" s="22"/>
@@ -9358,7 +9361,7 @@
       </c>
       <c r="M154" s="31" t="n">
         <f aca="false">SUM(I154:I226)</f>
-        <v>-8.65000000000001</v>
+        <v>21.87</v>
       </c>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
@@ -9410,7 +9413,7 @@
       </c>
       <c r="M155" s="31" t="n">
         <f aca="false">SUM(M2+M28+M101+M154)</f>
-        <v>112.8985</v>
+        <v>162.9385</v>
       </c>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
@@ -9976,7 +9979,7 @@
       <c r="Y167" s="22"/>
       <c r="Z167" s="22"/>
     </row>
-    <row r="168" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="36" t="n">
         <v>43852</v>
       </c>
@@ -9998,10 +10001,12 @@
       <c r="G168" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="H168" s="43"/>
-      <c r="I168" s="44" t="str">
+      <c r="H168" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I168" s="44" t="n">
         <f aca="false">_xlfn.IFS(H168="W", F168*G168-F168, H168="L", -F168, H168="V", 0, H168="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J168" s="39" t="s">
         <v>26</v>
@@ -10023,7 +10028,7 @@
       <c r="Y168" s="22"/>
       <c r="Z168" s="22"/>
     </row>
-    <row r="169" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="36"/>
       <c r="B169" s="37" t="s">
         <v>42</v>
@@ -10043,10 +10048,12 @@
       <c r="G169" s="42" t="n">
         <v>4.75</v>
       </c>
-      <c r="H169" s="43"/>
-      <c r="I169" s="44" t="str">
+      <c r="H169" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I169" s="44" t="n">
         <f aca="false">_xlfn.IFS(H169="W", F169*G169-F169, H169="L", -F169, H169="V", 0, H169="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J169" s="39" t="s">
         <v>26</v>
@@ -10068,7 +10075,7 @@
       <c r="Y169" s="22"/>
       <c r="Z169" s="22"/>
     </row>
-    <row r="170" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="36"/>
       <c r="B170" s="37" t="s">
         <v>42</v>
@@ -10088,10 +10095,12 @@
       <c r="G170" s="42" t="n">
         <v>1.64</v>
       </c>
-      <c r="H170" s="43"/>
-      <c r="I170" s="44" t="str">
+      <c r="H170" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I170" s="44" t="n">
         <f aca="false">_xlfn.IFS(H170="W", F170*G170-F170, H170="L", -F170, H170="V", 0, H170="","")</f>
-        <v/>
+        <v>19.52</v>
       </c>
       <c r="J170" s="39"/>
       <c r="K170" s="20"/>
@@ -10385,7 +10394,7 @@
       <c r="Y176" s="22"/>
       <c r="Z176" s="22"/>
     </row>
-    <row r="177" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="36"/>
       <c r="B177" s="37" t="s">
         <v>172</v>
@@ -10405,10 +10414,12 @@
       <c r="G177" s="42" t="n">
         <v>1.62</v>
       </c>
-      <c r="H177" s="43"/>
-      <c r="I177" s="44" t="str">
+      <c r="H177" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" s="44" t="n">
         <f aca="false">_xlfn.IFS(H177="W", F177*G177-F177, H177="L", -F177, H177="V", 0, H177="","")</f>
-        <v/>
+        <v>-14.2</v>
       </c>
       <c r="J177" s="39"/>
       <c r="K177" s="20"/>
@@ -10428,7 +10439,7 @@
       <c r="Y177" s="22"/>
       <c r="Z177" s="22"/>
     </row>
-    <row r="178" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="36"/>
       <c r="B178" s="37" t="s">
         <v>172</v>
@@ -10448,10 +10459,12 @@
       <c r="G178" s="42" t="n">
         <v>2.3</v>
       </c>
-      <c r="H178" s="43"/>
-      <c r="I178" s="44" t="str">
+      <c r="H178" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I178" s="44" t="n">
         <f aca="false">_xlfn.IFS(H178="W", F178*G178-F178, H178="L", -F178, H178="V", 0, H178="","")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="J178" s="39" t="s">
         <v>26</v>
@@ -10473,7 +10486,7 @@
       <c r="Y178" s="22"/>
       <c r="Z178" s="22"/>
     </row>
-    <row r="179" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="36"/>
       <c r="B179" s="37" t="s">
         <v>42</v>
@@ -10493,10 +10506,12 @@
       <c r="G179" s="42" t="n">
         <v>1.83</v>
       </c>
-      <c r="H179" s="43"/>
-      <c r="I179" s="44" t="str">
+      <c r="H179" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I179" s="44" t="n">
         <f aca="false">_xlfn.IFS(H179="W", F179*G179-F179, H179="L", -F179, H179="V", 0, H179="","")</f>
-        <v/>
+        <v>16.6</v>
       </c>
       <c r="J179" s="39"/>
       <c r="K179" s="20"/>
@@ -10516,7 +10531,7 @@
       <c r="Y179" s="22"/>
       <c r="Z179" s="22"/>
     </row>
-    <row r="180" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="36"/>
       <c r="B180" s="37" t="s">
         <v>42</v>
@@ -10536,10 +10551,12 @@
       <c r="G180" s="42" t="n">
         <v>1.85</v>
       </c>
-      <c r="H180" s="43"/>
-      <c r="I180" s="44" t="str">
+      <c r="H180" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I180" s="44" t="n">
         <f aca="false">_xlfn.IFS(H180="W", F180*G180-F180, H180="L", -F180, H180="V", 0, H180="","")</f>
-        <v/>
+        <v>24.65</v>
       </c>
       <c r="J180" s="39"/>
       <c r="K180" s="20"/>
@@ -10559,7 +10576,7 @@
       <c r="Y180" s="22"/>
       <c r="Z180" s="22"/>
     </row>
-    <row r="181" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36"/>
       <c r="B181" s="37" t="s">
         <v>42</v>
@@ -10579,10 +10596,12 @@
       <c r="G181" s="42" t="n">
         <v>4.5</v>
       </c>
-      <c r="H181" s="43"/>
-      <c r="I181" s="44" t="str">
+      <c r="H181" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" s="44" t="n">
         <f aca="false">_xlfn.IFS(H181="W", F181*G181-F181, H181="L", -F181, H181="V", 0, H181="","")</f>
-        <v/>
+        <v>-20</v>
       </c>
       <c r="J181" s="39" t="s">
         <v>176</v>
@@ -10604,7 +10623,7 @@
       <c r="Y181" s="22"/>
       <c r="Z181" s="22"/>
     </row>
-    <row r="182" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="36"/>
       <c r="B182" s="37" t="s">
         <v>42</v>
@@ -10624,10 +10643,12 @@
       <c r="G182" s="42" t="n">
         <v>3.75</v>
       </c>
-      <c r="H182" s="43"/>
-      <c r="I182" s="44" t="str">
+      <c r="H182" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I182" s="44" t="n">
         <f aca="false">_xlfn.IFS(H182="W", F182*G182-F182, H182="L", -F182, H182="V", 0, H182="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J182" s="39" t="s">
         <v>133</v>
@@ -10649,7 +10670,7 @@
       <c r="Y182" s="22"/>
       <c r="Z182" s="22"/>
     </row>
-    <row r="183" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="36"/>
       <c r="B183" s="37" t="s">
         <v>42</v>
@@ -10669,10 +10690,12 @@
       <c r="G183" s="42" t="n">
         <v>3.6</v>
       </c>
-      <c r="H183" s="43"/>
-      <c r="I183" s="44" t="str">
+      <c r="H183" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="44" t="n">
         <f aca="false">_xlfn.IFS(H183="W", F183*G183-F183, H183="L", -F183, H183="V", 0, H183="","")</f>
-        <v/>
+        <v>-15</v>
       </c>
       <c r="J183" s="39"/>
       <c r="K183" s="20"/>
@@ -10829,7 +10852,7 @@
       <c r="Y186" s="22"/>
       <c r="Z186" s="22"/>
     </row>
-    <row r="187" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="36"/>
       <c r="B187" s="37" t="s">
         <v>48</v>
@@ -10849,10 +10872,12 @@
       <c r="G187" s="42" t="n">
         <v>3.6</v>
       </c>
-      <c r="H187" s="43"/>
-      <c r="I187" s="44" t="str">
+      <c r="H187" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" s="44" t="n">
         <f aca="false">_xlfn.IFS(H187="W", F187*G187-F187, H187="L", -F187, H187="V", 0, H187="","")</f>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="J187" s="39"/>
       <c r="K187" s="20"/>
@@ -11007,7 +11032,7 @@
       <c r="Y190" s="22"/>
       <c r="Z190" s="22"/>
     </row>
-    <row r="191" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="36"/>
       <c r="B191" s="37" t="s">
         <v>48</v>
@@ -11027,10 +11052,12 @@
       <c r="G191" s="42" t="n">
         <v>2.3</v>
       </c>
-      <c r="H191" s="43"/>
-      <c r="I191" s="44" t="str">
+      <c r="H191" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" s="44" t="n">
         <f aca="false">_xlfn.IFS(H191="W", F191*G191-F191, H191="L", -F191, H191="V", 0, H191="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J191" s="39"/>
       <c r="K191" s="20"/>
@@ -11050,7 +11077,7 @@
       <c r="Y191" s="22"/>
       <c r="Z191" s="22"/>
     </row>
-    <row r="192" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="36"/>
       <c r="B192" s="37" t="s">
         <v>48</v>
@@ -11070,10 +11097,12 @@
       <c r="G192" s="42" t="n">
         <v>2.05</v>
       </c>
-      <c r="H192" s="43"/>
-      <c r="I192" s="44" t="str">
+      <c r="H192" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I192" s="44" t="n">
         <f aca="false">_xlfn.IFS(H192="W", F192*G192-F192, H192="L", -F192, H192="V", 0, H192="","")</f>
-        <v/>
+        <v>5.25</v>
       </c>
       <c r="J192" s="39"/>
       <c r="K192" s="20"/>
@@ -11093,7 +11122,7 @@
       <c r="Y192" s="22"/>
       <c r="Z192" s="22"/>
     </row>
-    <row r="193" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="36"/>
       <c r="B193" s="37" t="s">
         <v>48</v>
@@ -11113,10 +11142,12 @@
       <c r="G193" s="42" t="n">
         <v>1.85</v>
       </c>
-      <c r="H193" s="43"/>
-      <c r="I193" s="44" t="str">
+      <c r="H193" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I193" s="44" t="n">
         <f aca="false">_xlfn.IFS(H193="W", F193*G193-F193, H193="L", -F193, H193="V", 0, H193="","")</f>
-        <v/>
+        <v>4.25</v>
       </c>
       <c r="J193" s="39"/>
       <c r="K193" s="20"/>
@@ -11136,7 +11167,7 @@
       <c r="Y193" s="22"/>
       <c r="Z193" s="22"/>
     </row>
-    <row r="194" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="36"/>
       <c r="B194" s="37" t="s">
         <v>48</v>
@@ -11156,10 +11187,12 @@
       <c r="G194" s="42" t="n">
         <v>1.85</v>
       </c>
-      <c r="H194" s="43"/>
-      <c r="I194" s="44" t="str">
+      <c r="H194" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" s="44" t="n">
         <f aca="false">_xlfn.IFS(H194="W", F194*G194-F194, H194="L", -F194, H194="V", 0, H194="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J194" s="39"/>
       <c r="K194" s="20"/>
@@ -11179,7 +11212,7 @@
       <c r="Y194" s="22"/>
       <c r="Z194" s="22"/>
     </row>
-    <row r="195" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="36"/>
       <c r="B195" s="37" t="s">
         <v>48</v>
@@ -11199,10 +11232,12 @@
       <c r="G195" s="42" t="n">
         <v>1.9</v>
       </c>
-      <c r="H195" s="43"/>
-      <c r="I195" s="44" t="str">
+      <c r="H195" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="44" t="n">
         <f aca="false">_xlfn.IFS(H195="W", F195*G195-F195, H195="L", -F195, H195="V", 0, H195="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J195" s="39"/>
       <c r="K195" s="20"/>
@@ -11222,7 +11257,7 @@
       <c r="Y195" s="22"/>
       <c r="Z195" s="22"/>
     </row>
-    <row r="196" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="36"/>
       <c r="B196" s="37" t="s">
         <v>48</v>
@@ -11242,10 +11277,12 @@
       <c r="G196" s="42" t="n">
         <v>1.93</v>
       </c>
-      <c r="H196" s="43"/>
-      <c r="I196" s="44" t="str">
+      <c r="H196" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" s="44" t="n">
         <f aca="false">_xlfn.IFS(H196="W", F196*G196-F196, H196="L", -F196, H196="V", 0, H196="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J196" s="39"/>
       <c r="K196" s="20"/>
@@ -11265,7 +11302,7 @@
       <c r="Y196" s="22"/>
       <c r="Z196" s="22"/>
     </row>
-    <row r="197" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="36"/>
       <c r="B197" s="37" t="s">
         <v>48</v>
@@ -11285,10 +11322,12 @@
       <c r="G197" s="42" t="n">
         <v>1.9</v>
       </c>
-      <c r="H197" s="43"/>
-      <c r="I197" s="44" t="str">
+      <c r="H197" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I197" s="44" t="n">
         <f aca="false">_xlfn.IFS(H197="W", F197*G197-F197, H197="L", -F197, H197="V", 0, H197="","")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="J197" s="39"/>
       <c r="K197" s="20"/>
@@ -11308,7 +11347,7 @@
       <c r="Y197" s="22"/>
       <c r="Z197" s="22"/>
     </row>
-    <row r="198" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="36"/>
       <c r="B198" s="37" t="s">
         <v>48</v>
@@ -11328,10 +11367,12 @@
       <c r="G198" s="42" t="n">
         <v>3.6</v>
       </c>
-      <c r="H198" s="43"/>
-      <c r="I198" s="44" t="str">
+      <c r="H198" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" s="44" t="n">
         <f aca="false">_xlfn.IFS(H198="W", F198*G198-F198, H198="L", -F198, H198="V", 0, H198="","")</f>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="J198" s="39"/>
       <c r="K198" s="20"/>
@@ -11351,7 +11392,7 @@
       <c r="Y198" s="22"/>
       <c r="Z198" s="22"/>
     </row>
-    <row r="199" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="36"/>
       <c r="B199" s="37" t="s">
         <v>48</v>
@@ -11371,10 +11412,12 @@
       <c r="G199" s="42" t="n">
         <v>1.87</v>
       </c>
-      <c r="H199" s="43"/>
-      <c r="I199" s="44" t="str">
+      <c r="H199" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I199" s="44" t="n">
         <f aca="false">_xlfn.IFS(H199="W", F199*G199-F199, H199="L", -F199, H199="V", 0, H199="","")</f>
-        <v/>
+        <v>4.35</v>
       </c>
       <c r="J199" s="39"/>
       <c r="K199" s="20"/>
@@ -11394,7 +11437,7 @@
       <c r="Y199" s="22"/>
       <c r="Z199" s="22"/>
     </row>
-    <row r="200" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="36"/>
       <c r="B200" s="37" t="s">
         <v>48</v>
@@ -11414,10 +11457,12 @@
       <c r="G200" s="42" t="n">
         <v>1.9</v>
       </c>
-      <c r="H200" s="43"/>
-      <c r="I200" s="44" t="str">
+      <c r="H200" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I200" s="44" t="n">
         <f aca="false">_xlfn.IFS(H200="W", F200*G200-F200, H200="L", -F200, H200="V", 0, H200="","")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="J200" s="39"/>
       <c r="K200" s="20"/>
@@ -11437,7 +11482,7 @@
       <c r="Y200" s="22"/>
       <c r="Z200" s="22"/>
     </row>
-    <row r="201" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="36"/>
       <c r="B201" s="37" t="s">
         <v>48</v>
@@ -11457,10 +11502,12 @@
       <c r="G201" s="42" t="n">
         <v>2.2</v>
       </c>
-      <c r="H201" s="43"/>
-      <c r="I201" s="44" t="str">
+      <c r="H201" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I201" s="44" t="n">
         <f aca="false">_xlfn.IFS(H201="W", F201*G201-F201, H201="L", -F201, H201="V", 0, H201="","")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J201" s="39"/>
       <c r="K201" s="20"/>
@@ -11480,7 +11527,7 @@
       <c r="Y201" s="22"/>
       <c r="Z201" s="22"/>
     </row>
-    <row r="202" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="36"/>
       <c r="B202" s="37" t="s">
         <v>48</v>
@@ -11500,10 +11547,12 @@
       <c r="G202" s="42" t="n">
         <v>2.47</v>
       </c>
-      <c r="H202" s="43"/>
-      <c r="I202" s="44" t="str">
+      <c r="H202" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" s="44" t="n">
         <f aca="false">_xlfn.IFS(H202="W", F202*G202-F202, H202="L", -F202, H202="V", 0, H202="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J202" s="39"/>
       <c r="K202" s="20"/>
@@ -11523,7 +11572,7 @@
       <c r="Y202" s="22"/>
       <c r="Z202" s="22"/>
     </row>
-    <row r="203" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="36"/>
       <c r="B203" s="37" t="s">
         <v>48</v>
@@ -11543,10 +11592,12 @@
       <c r="G203" s="42" t="n">
         <v>2.42</v>
       </c>
-      <c r="H203" s="43"/>
-      <c r="I203" s="44" t="str">
+      <c r="H203" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I203" s="44" t="n">
         <f aca="false">_xlfn.IFS(H203="W", F203*G203-F203, H203="L", -F203, H203="V", 0, H203="","")</f>
-        <v/>
+        <v>7.1</v>
       </c>
       <c r="J203" s="39"/>
       <c r="K203" s="20"/>
@@ -11566,7 +11617,7 @@
       <c r="Y203" s="22"/>
       <c r="Z203" s="22"/>
     </row>
-    <row r="204" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="36"/>
       <c r="B204" s="37" t="s">
         <v>48</v>
@@ -11586,10 +11637,12 @@
       <c r="G204" s="42" t="n">
         <v>2.47</v>
       </c>
-      <c r="H204" s="43"/>
-      <c r="I204" s="44" t="str">
+      <c r="H204" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I204" s="44" t="n">
         <f aca="false">_xlfn.IFS(H204="W", F204*G204-F204, H204="L", -F204, H204="V", 0, H204="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J204" s="39" t="s">
         <v>26</v>
@@ -11612,19 +11665,35 @@
       <c r="Z204" s="22"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="36"/>
-      <c r="B205" s="37"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="40"/>
-      <c r="F205" s="41"/>
-      <c r="G205" s="42"/>
+      <c r="A205" s="36" t="n">
+        <v>43853</v>
+      </c>
+      <c r="B205" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D205" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E205" s="40" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F205" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G205" s="42" t="n">
+        <v>5.25</v>
+      </c>
       <c r="H205" s="43"/>
       <c r="I205" s="44" t="str">
         <f aca="false">_xlfn.IFS(H205="W", F205*G205-F205, H205="L", -F205, H205="V", 0, H205="","")</f>
         <v/>
       </c>
-      <c r="J205" s="39"/>
+      <c r="J205" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="K205" s="20"/>
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
@@ -11644,12 +11713,24 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="36"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="40"/>
-      <c r="F206" s="41"/>
-      <c r="G206" s="42"/>
+      <c r="B206" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="40" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F206" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G206" s="42" t="n">
+        <v>3.85</v>
+      </c>
       <c r="H206" s="43"/>
       <c r="I206" s="44" t="str">
         <f aca="false">_xlfn.IFS(H206="W", F206*G206-F206, H206="L", -F206, H206="V", 0, H206="","")</f>
@@ -11675,12 +11756,24 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="36"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="38"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="40"/>
-      <c r="F207" s="41"/>
-      <c r="G207" s="42"/>
+      <c r="B207" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E207" s="40" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F207" s="41" t="n">
+        <v>42.58</v>
+      </c>
+      <c r="G207" s="42" t="n">
+        <v>1.74</v>
+      </c>
       <c r="H207" s="43"/>
       <c r="I207" s="44" t="str">
         <f aca="false">_xlfn.IFS(H207="W", F207*G207-F207, H207="L", -F207, H207="V", 0, H207="","")</f>
@@ -11706,12 +11799,24 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="36"/>
-      <c r="B208" s="37"/>
-      <c r="C208" s="38"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="40"/>
-      <c r="F208" s="41"/>
-      <c r="G208" s="42"/>
+      <c r="B208" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E208" s="40" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F208" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G208" s="42" t="n">
+        <v>1.73</v>
+      </c>
       <c r="H208" s="43"/>
       <c r="I208" s="44" t="str">
         <f aca="false">_xlfn.IFS(H208="W", F208*G208-F208, H208="L", -F208, H208="V", 0, H208="","")</f>
@@ -36407,7 +36512,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49"/>
@@ -39824,7 +39929,7 @@
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -39836,13 +39941,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -39882,13 +39987,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2" s="41" t="n">
         <v>2.34</v>
@@ -39932,13 +40037,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D3" s="41" t="n">
         <v>1.51</v>
@@ -39975,13 +40080,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D4" s="41" t="n">
         <v>0.4</v>
@@ -40020,13 +40125,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="41" t="n">
         <v>10.24</v>
@@ -40063,13 +40168,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="41" t="n">
         <v>2.14</v>
@@ -40106,13 +40211,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="41" t="n">
         <v>0.7</v>
@@ -40152,13 +40257,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D8" s="41" t="n">
         <v>1.47</v>
@@ -40195,13 +40300,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D9" s="41" t="n">
         <v>17.31</v>
@@ -40242,7 +40347,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D10" s="41" t="n">
         <v>10</v>
@@ -40279,13 +40384,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" s="41" t="n">
         <v>4.35</v>
@@ -40322,13 +40427,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D12" s="41" t="n">
         <v>0</v>
@@ -40368,13 +40473,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D13" s="41" t="n">
         <v>7.03</v>
@@ -40390,7 +40495,7 @@
         <v>7.03</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I13" s="44" t="e">
         <f aca="false">_xlfn.IFS(H13="W", F13*G13-F13, H13="L", -F13, H13="V", 0, H13="","")</f>
@@ -40416,13 +40521,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D14" s="41" t="n">
         <v>0</v>
@@ -40438,7 +40543,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I14" s="44" t="e">
         <f aca="false">_xlfn.IFS(H14="W", F14*G14-F14, H14="L", -F14, H14="V", 0, H14="","")</f>
@@ -40464,13 +40569,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" s="41" t="n">
         <v>2.75</v>
@@ -40486,7 +40591,7 @@
         <v>2.75</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I15" s="44" t="e">
         <f aca="false">_xlfn.IFS(H15="W", F15*G15-F15, H15="L", -F15, H15="V", 0, H15="","")</f>
@@ -40512,13 +40617,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" s="41" t="n">
         <v>0.24</v>
@@ -40558,13 +40663,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D17" s="41" t="n">
         <v>1.07</v>
@@ -40604,13 +40709,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D18" s="41" t="n">
         <v>1.4</v>
@@ -40650,13 +40755,13 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" s="41" t="n">
         <v>9.82</v>
@@ -40672,7 +40777,7 @@
         <v>-9.82</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I19" s="44" t="e">
         <f aca="false">_xlfn.IFS(H19="W", F19*G19-F19, H19="L", -F19, H19="V", 0, H19="","")</f>
@@ -40698,13 +40803,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D20" s="41" t="n">
         <v>8.48</v>

--- a/bca20.xlsx
+++ b/bca20.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="264">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -552,7 +552,7 @@
     <t xml:space="preserve">Columbus Blue Jackets</t>
   </si>
   <si>
-    <t xml:space="preserve">(4/5)</t>
+    <t xml:space="preserve">NEVER HAPPENED??</t>
   </si>
   <si>
     <t xml:space="preserve">Winnipeg Jets</t>
@@ -795,6 +795,228 @@
     <t xml:space="preserve">Wolves </t>
   </si>
   <si>
+    <t xml:space="preserve">(4/5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavericks -4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavericks -4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavericks -3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland Trail Blazers +4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Wizards +3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIFK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.36/100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JYP + dortmund köln o1.5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borussia Dortmund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21;30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Köln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toronto Raptors -8.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">New Orleans Pelicans 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> q -1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">New Orleans Pelicans 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> h -2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacers -6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockets -5.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rockets -2.5 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> half</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS SUNS O226.5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Clippers O219.5p</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SAS Suns U109.5p 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00EBFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> half</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston Celtics +4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilmaisvetokarkelot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tappara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasuri + barys  sultan o1.5g + CSKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00→ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tappara Kalpa X kerroin 4.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalpa + barys astana o1.5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00→  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tappara Kalpa X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Game</t>
   </si>
   <si>
@@ -883,6 +1105,15 @@
   </si>
   <si>
     <t xml:space="preserve">56.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temple stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 eurolla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112,23</t>
   </si>
 </sst>
 </file>
@@ -2236,11 +2467,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J206" activeCellId="0" sqref="J206"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A215" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G244" activeCellId="0" sqref="G244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.86"/>
@@ -2361,7 +2592,7 @@
       </c>
       <c r="T2" s="31" t="n">
         <f aca="false">SUM(M2:M4000)</f>
-        <v>540.4816</v>
+        <v>676.426</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="21" t="s">
@@ -2475,7 +2706,7 @@
       </c>
       <c r="T4" s="33" t="n">
         <f aca="false">SUM(T2+T3)</f>
-        <v>540.4816</v>
+        <v>676.426</v>
       </c>
       <c r="U4" s="33"/>
       <c r="V4" s="21" t="s">
@@ -9360,8 +9591,8 @@
         <v>10</v>
       </c>
       <c r="M154" s="31" t="n">
-        <f aca="false">SUM(I154:I226)</f>
-        <v>21.87</v>
+        <f aca="false">SUM(I154:I255)</f>
+        <v>89.8422</v>
       </c>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
@@ -9413,7 +9644,7 @@
       </c>
       <c r="M155" s="31" t="n">
         <f aca="false">SUM(M2+M28+M101+M154)</f>
-        <v>162.9385</v>
+        <v>230.9107</v>
       </c>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
@@ -10576,7 +10807,7 @@
       <c r="Y180" s="22"/>
       <c r="Z180" s="22"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="36"/>
       <c r="B181" s="37" t="s">
         <v>42</v>
@@ -10597,11 +10828,11 @@
         <v>4.5</v>
       </c>
       <c r="H181" s="43" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I181" s="44" t="n">
         <f aca="false">_xlfn.IFS(H181="W", F181*G181-F181, H181="L", -F181, H181="V", 0, H181="","")</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J181" s="39" t="s">
         <v>176</v>
@@ -11664,7 +11895,7 @@
       <c r="Y204" s="22"/>
       <c r="Z204" s="22"/>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="36" t="n">
         <v>43853</v>
       </c>
@@ -11686,10 +11917,12 @@
       <c r="G205" s="42" t="n">
         <v>5.25</v>
       </c>
-      <c r="H205" s="43"/>
-      <c r="I205" s="44" t="str">
+      <c r="H205" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I205" s="44" t="n">
         <f aca="false">_xlfn.IFS(H205="W", F205*G205-F205, H205="L", -F205, H205="V", 0, H205="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J205" s="39" t="s">
         <v>26</v>
@@ -11711,7 +11944,7 @@
       <c r="Y205" s="22"/>
       <c r="Z205" s="22"/>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="36"/>
       <c r="B206" s="37" t="s">
         <v>11</v>
@@ -11731,13 +11964,17 @@
       <c r="G206" s="42" t="n">
         <v>3.85</v>
       </c>
-      <c r="H206" s="43"/>
-      <c r="I206" s="44" t="str">
+      <c r="H206" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="44" t="n">
         <f aca="false">_xlfn.IFS(H206="W", F206*G206-F206, H206="L", -F206, H206="V", 0, H206="","")</f>
-        <v/>
-      </c>
-      <c r="J206" s="39"/>
-      <c r="K206" s="20"/>
+        <v>-20</v>
+      </c>
+      <c r="J206" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="K206" s="46"/>
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="22"/>
@@ -11754,7 +11991,7 @@
       <c r="Y206" s="22"/>
       <c r="Z206" s="22"/>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="36"/>
       <c r="B207" s="37" t="s">
         <v>11</v>
@@ -11774,10 +12011,12 @@
       <c r="G207" s="42" t="n">
         <v>1.74</v>
       </c>
-      <c r="H207" s="43"/>
-      <c r="I207" s="44" t="str">
+      <c r="H207" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I207" s="44" t="n">
         <f aca="false">_xlfn.IFS(H207="W", F207*G207-F207, H207="L", -F207, H207="V", 0, H207="","")</f>
-        <v/>
+        <v>31.5092</v>
       </c>
       <c r="J207" s="39"/>
       <c r="K207" s="20"/>
@@ -11797,7 +12036,7 @@
       <c r="Y207" s="22"/>
       <c r="Z207" s="22"/>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="36"/>
       <c r="B208" s="37" t="s">
         <v>11</v>
@@ -11817,10 +12056,12 @@
       <c r="G208" s="42" t="n">
         <v>1.73</v>
       </c>
-      <c r="H208" s="43"/>
-      <c r="I208" s="44" t="str">
+      <c r="H208" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I208" s="44" t="n">
         <f aca="false">_xlfn.IFS(H208="W", F208*G208-F208, H208="L", -F208, H208="V", 0, H208="","")</f>
-        <v/>
+        <v>2.19</v>
       </c>
       <c r="J208" s="39"/>
       <c r="K208" s="20"/>
@@ -11840,18 +12081,32 @@
       <c r="Y208" s="22"/>
       <c r="Z208" s="22"/>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="36"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="38"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="40"/>
-      <c r="F209" s="41"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="43"/>
-      <c r="I209" s="44" t="str">
+      <c r="B209" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C209" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E209" s="40" t="n">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F209" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G209" s="42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H209" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I209" s="44" t="n">
         <f aca="false">_xlfn.IFS(H209="W", F209*G209-F209, H209="L", -F209, H209="V", 0, H209="","")</f>
-        <v/>
+        <v>4.65</v>
       </c>
       <c r="J209" s="39"/>
       <c r="K209" s="20"/>
@@ -11871,18 +12126,32 @@
       <c r="Y209" s="22"/>
       <c r="Z209" s="22"/>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="36"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="38"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="40"/>
-      <c r="F210" s="41"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="43"/>
-      <c r="I210" s="44" t="str">
+      <c r="B210" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E210" s="40" t="n">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F210" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G210" s="42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H210" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I210" s="44" t="n">
         <f aca="false">_xlfn.IFS(H210="W", F210*G210-F210, H210="L", -F210, H210="V", 0, H210="","")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="J210" s="39"/>
       <c r="K210" s="20"/>
@@ -11902,18 +12171,32 @@
       <c r="Y210" s="22"/>
       <c r="Z210" s="22"/>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="36"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="38"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="40"/>
-      <c r="F211" s="41"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="43"/>
-      <c r="I211" s="44" t="str">
+      <c r="B211" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E211" s="40" t="n">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F211" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G211" s="42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H211" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I211" s="44" t="n">
         <f aca="false">_xlfn.IFS(H211="W", F211*G211-F211, H211="L", -F211, H211="V", 0, H211="","")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="J211" s="39"/>
       <c r="K211" s="20"/>
@@ -11933,18 +12216,32 @@
       <c r="Y211" s="22"/>
       <c r="Z211" s="22"/>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="36"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="38"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="40"/>
-      <c r="F212" s="41"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="43"/>
-      <c r="I212" s="44" t="str">
+      <c r="B212" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D212" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E212" s="40" t="n">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F212" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G212" s="42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H212" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="44" t="n">
         <f aca="false">_xlfn.IFS(H212="W", F212*G212-F212, H212="L", -F212, H212="V", 0, H212="","")</f>
-        <v/>
+        <v>-20</v>
       </c>
       <c r="J212" s="39"/>
       <c r="K212" s="20"/>
@@ -11964,18 +12261,32 @@
       <c r="Y212" s="22"/>
       <c r="Z212" s="22"/>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="36"/>
-      <c r="B213" s="37"/>
-      <c r="C213" s="38"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="40"/>
-      <c r="F213" s="41"/>
-      <c r="G213" s="42"/>
-      <c r="H213" s="43"/>
-      <c r="I213" s="44" t="str">
+      <c r="B213" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E213" s="40" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F213" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G213" s="42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H213" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I213" s="44" t="n">
         <f aca="false">_xlfn.IFS(H213="W", F213*G213-F213, H213="L", -F213, H213="V", 0, H213="","")</f>
-        <v/>
+        <v>8.5</v>
       </c>
       <c r="J213" s="39"/>
       <c r="K213" s="20"/>
@@ -11995,18 +12306,32 @@
       <c r="Y213" s="22"/>
       <c r="Z213" s="22"/>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="36"/>
-      <c r="B214" s="37"/>
-      <c r="C214" s="38"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="40"/>
-      <c r="F214" s="41"/>
-      <c r="G214" s="42"/>
-      <c r="H214" s="43"/>
-      <c r="I214" s="44" t="str">
+      <c r="B214" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D214" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E214" s="40" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F214" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G214" s="42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H214" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="44" t="n">
         <f aca="false">_xlfn.IFS(H214="W", F214*G214-F214, H214="L", -F214, H214="V", 0, H214="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J214" s="39"/>
       <c r="K214" s="20"/>
@@ -12026,18 +12351,34 @@
       <c r="Y214" s="22"/>
       <c r="Z214" s="22"/>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="36"/>
-      <c r="B215" s="37"/>
-      <c r="C215" s="38"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="40"/>
-      <c r="F215" s="41"/>
-      <c r="G215" s="42"/>
-      <c r="H215" s="43"/>
-      <c r="I215" s="44" t="str">
+    <row r="215" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="36" t="n">
+        <v>43854</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C215" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E215" s="40" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="F215" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G215" s="42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H215" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I215" s="44" t="n">
         <f aca="false">_xlfn.IFS(H215="W", F215*G215-F215, H215="L", -F215, H215="V", 0, H215="","")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="J215" s="39"/>
       <c r="K215" s="20"/>
@@ -12057,20 +12398,36 @@
       <c r="Y215" s="22"/>
       <c r="Z215" s="22"/>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="36"/>
-      <c r="B216" s="37"/>
-      <c r="C216" s="38"/>
-      <c r="D216" s="39"/>
-      <c r="E216" s="40"/>
-      <c r="F216" s="41"/>
-      <c r="G216" s="42"/>
-      <c r="H216" s="43"/>
-      <c r="I216" s="44" t="str">
+      <c r="B216" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="40" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="F216" s="41" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="G216" s="42" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H216" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="44" t="n">
         <f aca="false">_xlfn.IFS(H216="W", F216*G216-F216, H216="L", -F216, H216="V", 0, H216="","")</f>
-        <v/>
-      </c>
-      <c r="J216" s="39"/>
+        <v>-11.36</v>
+      </c>
+      <c r="J216" s="39" t="s">
+        <v>205</v>
+      </c>
       <c r="K216" s="20"/>
       <c r="L216" s="22"/>
       <c r="M216" s="22"/>
@@ -12088,18 +12445,32 @@
       <c r="Y216" s="22"/>
       <c r="Z216" s="22"/>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="36"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="38"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="40"/>
-      <c r="F217" s="41"/>
-      <c r="G217" s="42"/>
-      <c r="H217" s="43"/>
-      <c r="I217" s="44" t="str">
+      <c r="B217" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C217" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E217" s="40" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="F217" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G217" s="42" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H217" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" s="44" t="n">
         <f aca="false">_xlfn.IFS(H217="W", F217*G217-F217, H217="L", -F217, H217="V", 0, H217="","")</f>
-        <v/>
+        <v>-10</v>
       </c>
       <c r="J217" s="39"/>
       <c r="K217" s="20"/>
@@ -12119,18 +12490,32 @@
       <c r="Y217" s="22"/>
       <c r="Z217" s="22"/>
     </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="36"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="38"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="40"/>
-      <c r="F218" s="41"/>
-      <c r="G218" s="42"/>
-      <c r="H218" s="43"/>
-      <c r="I218" s="44" t="str">
+      <c r="B218" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E218" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F218" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G218" s="42" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H218" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" s="44" t="n">
         <f aca="false">_xlfn.IFS(H218="W", F218*G218-F218, H218="L", -F218, H218="V", 0, H218="","")</f>
-        <v/>
+        <v>-20</v>
       </c>
       <c r="J218" s="39"/>
       <c r="K218" s="20"/>
@@ -12150,18 +12535,32 @@
       <c r="Y218" s="22"/>
       <c r="Z218" s="22"/>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="36"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="38"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="40"/>
-      <c r="F219" s="41"/>
-      <c r="G219" s="42"/>
-      <c r="H219" s="43"/>
-      <c r="I219" s="44" t="str">
+      <c r="B219" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F219" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G219" s="42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H219" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I219" s="44" t="n">
         <f aca="false">_xlfn.IFS(H219="W", F219*G219-F219, H219="L", -F219, H219="V", 0, H219="","")</f>
-        <v/>
+        <v>8.8</v>
       </c>
       <c r="J219" s="39"/>
       <c r="K219" s="20"/>
@@ -12181,18 +12580,32 @@
       <c r="Y219" s="22"/>
       <c r="Z219" s="22"/>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="36"/>
-      <c r="B220" s="37"/>
-      <c r="C220" s="38"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="40"/>
-      <c r="F220" s="41"/>
-      <c r="G220" s="42"/>
-      <c r="H220" s="43"/>
-      <c r="I220" s="44" t="str">
+      <c r="B220" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F220" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="G220" s="42" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="H220" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I220" s="44" t="n">
         <f aca="false">_xlfn.IFS(H220="W", F220*G220-F220, H220="L", -F220, H220="V", 0, H220="","")</f>
-        <v/>
+        <v>28.42</v>
       </c>
       <c r="J220" s="39"/>
       <c r="K220" s="20"/>
@@ -12212,18 +12625,32 @@
       <c r="Y220" s="22"/>
       <c r="Z220" s="22"/>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="36"/>
-      <c r="B221" s="37"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="40"/>
-      <c r="F221" s="41"/>
-      <c r="G221" s="42"/>
-      <c r="H221" s="43"/>
-      <c r="I221" s="44" t="str">
+      <c r="B221" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D221" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E221" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F221" s="41" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="G221" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H221" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I221" s="44" t="n">
         <f aca="false">_xlfn.IFS(H221="W", F221*G221-F221, H221="L", -F221, H221="V", 0, H221="","")</f>
-        <v/>
+        <v>-18.53</v>
       </c>
       <c r="J221" s="39"/>
       <c r="K221" s="20"/>
@@ -12243,18 +12670,32 @@
       <c r="Y221" s="22"/>
       <c r="Z221" s="22"/>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="36"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="38"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="40"/>
-      <c r="F222" s="41"/>
-      <c r="G222" s="42"/>
-      <c r="H222" s="43"/>
-      <c r="I222" s="44" t="str">
+      <c r="B222" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D222" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="40" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F222" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G222" s="42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H222" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I222" s="44" t="n">
         <f aca="false">_xlfn.IFS(H222="W", F222*G222-F222, H222="L", -F222, H222="V", 0, H222="","")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J222" s="39"/>
       <c r="K222" s="20"/>
@@ -12274,18 +12715,32 @@
       <c r="Y222" s="22"/>
       <c r="Z222" s="22"/>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="36"/>
-      <c r="B223" s="37"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="40"/>
-      <c r="F223" s="41"/>
-      <c r="G223" s="42"/>
-      <c r="H223" s="43"/>
-      <c r="I223" s="44" t="str">
+      <c r="B223" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E223" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F223" s="41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G223" s="42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H223" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I223" s="44" t="n">
         <f aca="false">_xlfn.IFS(H223="W", F223*G223-F223, H223="L", -F223, H223="V", 0, H223="","")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="J223" s="39"/>
       <c r="K223" s="20"/>
@@ -12305,18 +12760,32 @@
       <c r="Y223" s="22"/>
       <c r="Z223" s="22"/>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="36"/>
-      <c r="B224" s="37"/>
-      <c r="C224" s="38"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="40"/>
-      <c r="F224" s="41"/>
-      <c r="G224" s="42"/>
-      <c r="H224" s="43"/>
-      <c r="I224" s="44" t="str">
+      <c r="B224" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D224" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F224" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G224" s="42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H224" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I224" s="44" t="n">
         <f aca="false">_xlfn.IFS(H224="W", F224*G224-F224, H224="L", -F224, H224="V", 0, H224="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J224" s="39"/>
       <c r="K224" s="20"/>
@@ -12336,18 +12805,32 @@
       <c r="Y224" s="22"/>
       <c r="Z224" s="22"/>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="36"/>
-      <c r="B225" s="37"/>
-      <c r="C225" s="38"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="40"/>
-      <c r="F225" s="41"/>
-      <c r="G225" s="42"/>
-      <c r="H225" s="43"/>
-      <c r="I225" s="44" t="str">
+      <c r="B225" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E225" s="40" t="n">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="F225" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G225" s="42" t="n">
+        <v>23</v>
+      </c>
+      <c r="H225" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" s="44" t="n">
         <f aca="false">_xlfn.IFS(H225="W", F225*G225-F225, H225="L", -F225, H225="V", 0, H225="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J225" s="39"/>
       <c r="K225" s="20"/>
@@ -12367,18 +12850,32 @@
       <c r="Y225" s="22"/>
       <c r="Z225" s="22"/>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="36"/>
-      <c r="B226" s="37"/>
-      <c r="C226" s="38"/>
-      <c r="D226" s="39"/>
-      <c r="E226" s="40"/>
-      <c r="F226" s="41"/>
-      <c r="G226" s="42"/>
-      <c r="H226" s="43"/>
-      <c r="I226" s="44" t="str">
+      <c r="B226" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E226" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F226" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G226" s="42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H226" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I226" s="44" t="n">
         <f aca="false">_xlfn.IFS(H226="W", F226*G226-F226, H226="L", -F226, H226="V", 0, H226="","")</f>
-        <v/>
+        <v>-10</v>
       </c>
       <c r="J226" s="39"/>
       <c r="K226" s="20"/>
@@ -12398,18 +12895,32 @@
       <c r="Y226" s="22"/>
       <c r="Z226" s="22"/>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="36"/>
-      <c r="B227" s="37"/>
-      <c r="C227" s="38"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="40"/>
-      <c r="F227" s="41"/>
-      <c r="G227" s="42"/>
-      <c r="H227" s="43"/>
-      <c r="I227" s="44" t="str">
+      <c r="B227" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E227" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F227" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G227" s="42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H227" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" s="44" t="n">
         <f aca="false">_xlfn.IFS(H227="W", F227*G227-F227, H227="L", -F227, H227="V", 0, H227="","")</f>
-        <v/>
+        <v>-10</v>
       </c>
       <c r="J227" s="39"/>
       <c r="K227" s="20"/>
@@ -12429,18 +12940,32 @@
       <c r="Y227" s="22"/>
       <c r="Z227" s="22"/>
     </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="36"/>
-      <c r="B228" s="37"/>
-      <c r="C228" s="38"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="40"/>
-      <c r="F228" s="41"/>
-      <c r="G228" s="42"/>
-      <c r="H228" s="43"/>
-      <c r="I228" s="44" t="str">
+      <c r="B228" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E228" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F228" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G228" s="42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H228" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="44" t="n">
         <f aca="false">_xlfn.IFS(H228="W", F228*G228-F228, H228="L", -F228, H228="V", 0, H228="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J228" s="39"/>
       <c r="K228" s="20"/>
@@ -12460,18 +12985,32 @@
       <c r="Y228" s="22"/>
       <c r="Z228" s="22"/>
     </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="36"/>
-      <c r="B229" s="37"/>
-      <c r="C229" s="38"/>
-      <c r="D229" s="39"/>
-      <c r="E229" s="40"/>
-      <c r="F229" s="41"/>
-      <c r="G229" s="42"/>
-      <c r="H229" s="43"/>
-      <c r="I229" s="44" t="str">
+      <c r="B229" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E229" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F229" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G229" s="42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H229" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I229" s="44" t="n">
         <f aca="false">_xlfn.IFS(H229="W", F229*G229-F229, H229="L", -F229, H229="V", 0, H229="","")</f>
-        <v/>
+        <v>8.5</v>
       </c>
       <c r="J229" s="39"/>
       <c r="K229" s="20"/>
@@ -12491,18 +13030,32 @@
       <c r="Y229" s="22"/>
       <c r="Z229" s="22"/>
     </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="36"/>
-      <c r="B230" s="37"/>
-      <c r="C230" s="38"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="40"/>
-      <c r="F230" s="41"/>
-      <c r="G230" s="42"/>
-      <c r="H230" s="43"/>
-      <c r="I230" s="44" t="str">
+      <c r="B230" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E230" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F230" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G230" s="42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H230" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I230" s="44" t="n">
         <f aca="false">_xlfn.IFS(H230="W", F230*G230-F230, H230="L", -F230, H230="V", 0, H230="","")</f>
-        <v/>
+        <v>8.5</v>
       </c>
       <c r="J230" s="39"/>
       <c r="K230" s="20"/>
@@ -12522,18 +13075,32 @@
       <c r="Y230" s="22"/>
       <c r="Z230" s="22"/>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="36"/>
-      <c r="B231" s="37"/>
-      <c r="C231" s="38"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="40"/>
-      <c r="F231" s="41"/>
-      <c r="G231" s="42"/>
-      <c r="H231" s="43"/>
-      <c r="I231" s="44" t="str">
+      <c r="B231" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E231" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F231" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G231" s="42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H231" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I231" s="44" t="n">
         <f aca="false">_xlfn.IFS(H231="W", F231*G231-F231, H231="L", -F231, H231="V", 0, H231="","")</f>
-        <v/>
+        <v>8.7</v>
       </c>
       <c r="J231" s="39"/>
       <c r="K231" s="20"/>
@@ -12553,18 +13120,32 @@
       <c r="Y231" s="22"/>
       <c r="Z231" s="22"/>
     </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="36"/>
-      <c r="B232" s="37"/>
-      <c r="C232" s="38"/>
-      <c r="D232" s="39"/>
-      <c r="E232" s="40"/>
-      <c r="F232" s="41"/>
-      <c r="G232" s="42"/>
-      <c r="H232" s="43"/>
-      <c r="I232" s="44" t="str">
+      <c r="B232" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E232" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F232" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G232" s="42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H232" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I232" s="44" t="n">
         <f aca="false">_xlfn.IFS(H232="W", F232*G232-F232, H232="L", -F232, H232="V", 0, H232="","")</f>
-        <v/>
+        <v>-10</v>
       </c>
       <c r="J232" s="39"/>
       <c r="K232" s="20"/>
@@ -12584,18 +13165,32 @@
       <c r="Y232" s="22"/>
       <c r="Z232" s="22"/>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="36"/>
-      <c r="B233" s="37"/>
-      <c r="C233" s="38"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="40"/>
-      <c r="F233" s="41"/>
-      <c r="G233" s="42"/>
-      <c r="H233" s="43"/>
-      <c r="I233" s="44" t="str">
+      <c r="B233" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D233" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="E233" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F233" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G233" s="42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H233" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I233" s="44" t="n">
         <f aca="false">_xlfn.IFS(H233="W", F233*G233-F233, H233="L", -F233, H233="V", 0, H233="","")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="J233" s="39"/>
       <c r="K233" s="20"/>
@@ -12615,18 +13210,32 @@
       <c r="Y233" s="22"/>
       <c r="Z233" s="22"/>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="36"/>
-      <c r="B234" s="37"/>
-      <c r="C234" s="38"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="41"/>
-      <c r="G234" s="42"/>
-      <c r="H234" s="43"/>
-      <c r="I234" s="44" t="str">
+      <c r="B234" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E234" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F234" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G234" s="42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H234" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I234" s="44" t="n">
         <f aca="false">_xlfn.IFS(H234="W", F234*G234-F234, H234="L", -F234, H234="V", 0, H234="","")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="J234" s="39"/>
       <c r="K234" s="20"/>
@@ -12646,18 +13255,32 @@
       <c r="Y234" s="22"/>
       <c r="Z234" s="22"/>
     </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="36"/>
-      <c r="B235" s="37"/>
-      <c r="C235" s="38"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="40"/>
-      <c r="F235" s="41"/>
-      <c r="G235" s="42"/>
-      <c r="H235" s="43"/>
-      <c r="I235" s="44" t="str">
+      <c r="B235" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E235" s="40" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F235" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G235" s="42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H235" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I235" s="44" t="n">
         <f aca="false">_xlfn.IFS(H235="W", F235*G235-F235, H235="L", -F235, H235="V", 0, H235="","")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="J235" s="39"/>
       <c r="K235" s="20"/>
@@ -12677,20 +13300,38 @@
       <c r="Y235" s="22"/>
       <c r="Z235" s="22"/>
     </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="36"/>
-      <c r="B236" s="37"/>
-      <c r="C236" s="38"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="40"/>
-      <c r="F236" s="41"/>
-      <c r="G236" s="42"/>
-      <c r="H236" s="43"/>
-      <c r="I236" s="44" t="str">
+    <row r="236" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="36" t="n">
+        <v>43855</v>
+      </c>
+      <c r="B236" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="E236" s="40" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F236" s="41" t="n">
+        <v>25</v>
+      </c>
+      <c r="G236" s="42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H236" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I236" s="44" t="n">
         <f aca="false">_xlfn.IFS(H236="W", F236*G236-F236, H236="L", -F236, H236="V", 0, H236="","")</f>
-        <v/>
-      </c>
-      <c r="J236" s="39"/>
+        <v>-25</v>
+      </c>
+      <c r="J236" s="39" t="s">
+        <v>222</v>
+      </c>
       <c r="K236" s="20"/>
       <c r="L236" s="22"/>
       <c r="M236" s="22"/>
@@ -12708,18 +13349,30 @@
       <c r="Y236" s="22"/>
       <c r="Z236" s="22"/>
     </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="36"/>
-      <c r="B237" s="37"/>
+      <c r="B237" s="37" t="s">
+        <v>11</v>
+      </c>
       <c r="C237" s="38"/>
-      <c r="D237" s="39"/>
-      <c r="E237" s="40"/>
-      <c r="F237" s="41"/>
-      <c r="G237" s="42"/>
-      <c r="H237" s="43"/>
-      <c r="I237" s="44" t="str">
+      <c r="D237" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" s="40" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F237" s="41" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="G237" s="42" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="H237" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I237" s="44" t="n">
         <f aca="false">_xlfn.IFS(H237="W", F237*G237-F237, H237="L", -F237, H237="V", 0, H237="","")</f>
-        <v/>
+        <v>-10.02</v>
       </c>
       <c r="J237" s="39"/>
       <c r="K237" s="20"/>
@@ -12739,18 +13392,32 @@
       <c r="Y237" s="22"/>
       <c r="Z237" s="22"/>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="36"/>
-      <c r="B238" s="37"/>
-      <c r="C238" s="38"/>
-      <c r="D238" s="39"/>
-      <c r="E238" s="40"/>
-      <c r="F238" s="41"/>
-      <c r="G238" s="42"/>
-      <c r="H238" s="43"/>
-      <c r="I238" s="44" t="str">
+      <c r="B238" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D238" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E238" s="40" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F238" s="41" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="G238" s="42" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H238" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I238" s="44" t="n">
         <f aca="false">_xlfn.IFS(H238="W", F238*G238-F238, H238="L", -F238, H238="V", 0, H238="","")</f>
-        <v/>
+        <v>33.813</v>
       </c>
       <c r="J238" s="39"/>
       <c r="K238" s="20"/>
@@ -12770,18 +13437,32 @@
       <c r="Y238" s="22"/>
       <c r="Z238" s="22"/>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="36"/>
-      <c r="B239" s="37"/>
-      <c r="C239" s="38"/>
-      <c r="D239" s="39"/>
-      <c r="E239" s="40"/>
-      <c r="F239" s="41"/>
-      <c r="G239" s="42"/>
-      <c r="H239" s="43"/>
-      <c r="I239" s="44" t="str">
+      <c r="B239" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C239" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D239" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E239" s="40" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F239" s="41" t="n">
+        <v>62</v>
+      </c>
+      <c r="G239" s="42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H239" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I239" s="44" t="n">
         <f aca="false">_xlfn.IFS(H239="W", F239*G239-F239, H239="L", -F239, H239="V", 0, H239="","")</f>
-        <v/>
+        <v>-62</v>
       </c>
       <c r="J239" s="39"/>
       <c r="K239" s="20"/>
@@ -12801,20 +13482,36 @@
       <c r="Y239" s="22"/>
       <c r="Z239" s="22"/>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="36"/>
-      <c r="B240" s="37"/>
-      <c r="C240" s="38"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="40"/>
-      <c r="F240" s="41"/>
-      <c r="G240" s="42"/>
-      <c r="H240" s="43"/>
-      <c r="I240" s="44" t="str">
+      <c r="B240" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C240" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E240" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F240" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G240" s="42" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="H240" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I240" s="44" t="n">
         <f aca="false">_xlfn.IFS(H240="W", F240*G240-F240, H240="L", -F240, H240="V", 0, H240="","")</f>
-        <v/>
-      </c>
-      <c r="J240" s="39"/>
+        <v>-10</v>
+      </c>
+      <c r="J240" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="K240" s="20"/>
       <c r="L240" s="22"/>
       <c r="M240" s="22"/>
@@ -12832,18 +13529,32 @@
       <c r="Y240" s="22"/>
       <c r="Z240" s="22"/>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="36"/>
-      <c r="B241" s="37"/>
-      <c r="C241" s="38"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="40"/>
-      <c r="F241" s="41"/>
-      <c r="G241" s="42"/>
-      <c r="H241" s="43"/>
-      <c r="I241" s="44" t="str">
+      <c r="B241" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C241" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F241" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G241" s="42" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="H241" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I241" s="44" t="n">
         <f aca="false">_xlfn.IFS(H241="W", F241*G241-F241, H241="L", -F241, H241="V", 0, H241="","")</f>
-        <v/>
+        <v>78.8</v>
       </c>
       <c r="J241" s="39"/>
       <c r="K241" s="20"/>
@@ -12863,18 +13574,32 @@
       <c r="Y241" s="22"/>
       <c r="Z241" s="22"/>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="36"/>
-      <c r="B242" s="37"/>
-      <c r="C242" s="38"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="40"/>
-      <c r="F242" s="41"/>
-      <c r="G242" s="42"/>
-      <c r="H242" s="43"/>
-      <c r="I242" s="44" t="str">
+      <c r="B242" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C242" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E242" s="40" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F242" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G242" s="42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H242" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I242" s="44" t="n">
         <f aca="false">_xlfn.IFS(H242="W", F242*G242-F242, H242="L", -F242, H242="V", 0, H242="","")</f>
-        <v/>
+        <v>-10</v>
       </c>
       <c r="J242" s="39"/>
       <c r="K242" s="20"/>
@@ -36512,7 +37237,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49"/>
@@ -39926,10 +40651,10 @@
   <dimension ref="A1:Z505"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -39941,13 +40666,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>5</v>
@@ -39987,13 +40712,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="D2" s="41" t="n">
         <v>2.34</v>
@@ -40016,7 +40741,7 @@
       </c>
       <c r="J2" s="60" t="n">
         <f aca="false">SUM(G2:G1000)</f>
-        <v>56.93</v>
+        <v>56.54</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -40037,13 +40762,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="37" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D3" s="41" t="n">
         <v>1.51</v>
@@ -40080,13 +40805,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D4" s="41" t="n">
         <v>0.4</v>
@@ -40125,13 +40850,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D5" s="41" t="n">
         <v>10.24</v>
@@ -40168,13 +40893,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="D6" s="41" t="n">
         <v>2.14</v>
@@ -40211,13 +40936,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D7" s="41" t="n">
         <v>0.7</v>
@@ -40257,13 +40982,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D8" s="41" t="n">
         <v>1.47</v>
@@ -40300,13 +41025,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="D9" s="41" t="n">
         <v>17.31</v>
@@ -40347,7 +41072,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D10" s="41" t="n">
         <v>10</v>
@@ -40384,13 +41109,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="D11" s="41" t="n">
         <v>4.35</v>
@@ -40427,13 +41152,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D12" s="41" t="n">
         <v>0</v>
@@ -40473,13 +41198,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="D13" s="41" t="n">
         <v>7.03</v>
@@ -40495,7 +41220,7 @@
         <v>7.03</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="I13" s="44" t="e">
         <f aca="false">_xlfn.IFS(H13="W", F13*G13-F13, H13="L", -F13, H13="V", 0, H13="","")</f>
@@ -40521,13 +41246,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D14" s="41" t="n">
         <v>0</v>
@@ -40543,7 +41268,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="I14" s="44" t="e">
         <f aca="false">_xlfn.IFS(H14="W", F14*G14-F14, H14="L", -F14, H14="V", 0, H14="","")</f>
@@ -40569,13 +41294,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D15" s="41" t="n">
         <v>2.75</v>
@@ -40591,7 +41316,7 @@
         <v>2.75</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="I15" s="44" t="e">
         <f aca="false">_xlfn.IFS(H15="W", F15*G15-F15, H15="L", -F15, H15="V", 0, H15="","")</f>
@@ -40617,13 +41342,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="D16" s="41" t="n">
         <v>0.24</v>
@@ -40663,13 +41388,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D17" s="41" t="n">
         <v>1.07</v>
@@ -40709,13 +41434,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="D18" s="41" t="n">
         <v>1.4</v>
@@ -40755,13 +41480,13 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D19" s="41" t="n">
         <v>9.82</v>
@@ -40777,7 +41502,7 @@
         <v>-9.82</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="I19" s="44" t="e">
         <f aca="false">_xlfn.IFS(H19="W", F19*G19-F19, H19="L", -F19, H19="V", 0, H19="","")</f>
@@ -40803,13 +41528,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D20" s="41" t="n">
         <v>8.48</v>
@@ -40847,16 +41572,28 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="31" t="str">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="41" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E21" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="31" t="n">
         <f aca="false">_xlfn.IFS(F21="W", D21*E21-D21, F21="L", -D21, F21="V", 0, F21="","")</f>
-        <v/>
+        <v>2.96</v>
       </c>
       <c r="H21" s="43"/>
       <c r="I21" s="44" t="e">
@@ -40881,18 +41618,32 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="31" t="str">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="41" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E22" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="31" t="n">
         <f aca="false">_xlfn.IFS(F22="W", D22*E22-D22, F22="L", -D22, F22="V", 0, F22="","")</f>
-        <v/>
-      </c>
-      <c r="H22" s="43"/>
+        <v>-4.98</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>263</v>
+      </c>
       <c r="I22" s="44" t="e">
         <f aca="false">_xlfn.IFS(H22="W", F22*G22-F22, H22="L", -F22, H22="V", 0, H22="","")</f>
         <v>#VALUE!</v>
@@ -40915,16 +41666,28 @@
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="31" t="str">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="41" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E23" s="58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="31" t="n">
         <f aca="false">_xlfn.IFS(F23="W", D23*E23-D23, F23="L", -D23, F23="V", 0, F23="","")</f>
-        <v/>
+        <v>1.63</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="44" t="e">

--- a/bca20.xlsx
+++ b/bca20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bets 2020" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="473">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -1549,10 +1549,13 @@
     <t xml:space="preserve">Tottenham Wolves U2.5g + Real Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">16:00--→</t>
+    <t xml:space="preserve">16:00→</t>
   </si>
   <si>
     <t xml:space="preserve">Tästä 10e free live bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TonyBet</t>
   </si>
   <si>
     <t xml:space="preserve">Tottenham Wolves O2.5g</t>
@@ -1562,6 +1565,39 @@
   </si>
   <si>
     <t xml:space="preserve">Real Madrid Barcelona o0.5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasurille nyt 132.34e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philadelphia Flyers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Madridille 222.75e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real Madrid Barcelona X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25% voiton korotus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Madrid Barcelona 0-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Madrid 1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Madrid Barcelona 1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Panthers +1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maaliskuu1</t>
   </si>
   <si>
     <t xml:space="preserve">2-way</t>
@@ -3617,11 +3653,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A430" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E465" activeCellId="0" sqref="E465"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.62"/>
@@ -3677,14 +3713,14 @@
       </c>
       <c r="M1" s="23" t="n">
         <f aca="false">SUM(I2:I2000)</f>
-        <v>269.8942</v>
+        <v>325.6896</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="23" t="n">
         <f aca="false">SUM(F2:F3500)</f>
-        <v>7844.48</v>
+        <v>8309.82</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>13</v>
@@ -3823,11 +3859,15 @@
       <c r="O3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="36"/>
+      <c r="P3" s="37" t="n">
+        <v>60.89</v>
+      </c>
+      <c r="Q3" s="36" t="n">
+        <v>82.38</v>
+      </c>
       <c r="R3" s="34" t="n">
         <f aca="false">SUM(P3+Q3)</f>
-        <v>0</v>
+        <v>143.27</v>
       </c>
       <c r="S3" s="36" t="s">
         <v>14</v>
@@ -23506,8 +23546,8 @@
         <v>11</v>
       </c>
       <c r="M430" s="34" t="n">
-        <f aca="false">SUM(I430:I486)</f>
-        <v>26.067</v>
+        <f aca="false">SUM(I430:I482)</f>
+        <v>81.8624</v>
       </c>
       <c r="N430" s="25"/>
       <c r="O430" s="25"/>
@@ -23559,7 +23599,7 @@
       </c>
       <c r="M431" s="34" t="n">
         <f aca="false">SUM(M280+M335+M374+M430)</f>
-        <v>5.09750000000002</v>
+        <v>60.8929</v>
       </c>
       <c r="N431" s="25"/>
       <c r="O431" s="25"/>
@@ -24713,10 +24753,12 @@
       <c r="G456" s="47" t="n">
         <v>3.23</v>
       </c>
-      <c r="H456" s="48"/>
-      <c r="I456" s="23" t="str">
+      <c r="H456" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I456" s="23" t="n">
         <f aca="false">_xlfn.IFS(H456="W", F456*G456-F456, H456="L", -F456, H456="V", 0, H456="","")</f>
-        <v/>
+        <v>-118.07</v>
       </c>
       <c r="J456" s="44" t="s">
         <v>395</v>
@@ -24758,10 +24800,12 @@
       <c r="G457" s="47" t="n">
         <v>3.5</v>
       </c>
-      <c r="H457" s="48"/>
-      <c r="I457" s="23" t="str">
+      <c r="H457" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I457" s="23" t="n">
         <f aca="false">_xlfn.IFS(H457="W", F457*G457-F457, H457="L", -F457, H457="V", 0, H457="","")</f>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="J457" s="44"/>
       <c r="K457" s="21"/>
@@ -24834,10 +24878,12 @@
       <c r="G459" s="47" t="n">
         <v>3.69</v>
       </c>
-      <c r="H459" s="48"/>
-      <c r="I459" s="23" t="str">
+      <c r="H459" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I459" s="23" t="n">
         <f aca="false">_xlfn.IFS(H459="W", F459*G459-F459, H459="L", -F459, H459="V", 0, H459="","")</f>
-        <v/>
+        <v>-20</v>
       </c>
       <c r="J459" s="44" t="s">
         <v>399</v>
@@ -24865,20 +24911,26 @@
         <v>15</v>
       </c>
       <c r="C460" s="43" t="s">
-        <v>128</v>
+        <v>400</v>
       </c>
       <c r="D460" s="44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E460" s="45" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="F460" s="46"/>
-      <c r="G460" s="47"/>
-      <c r="H460" s="48"/>
-      <c r="I460" s="23" t="str">
+      <c r="F460" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G460" s="47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H460" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I460" s="23" t="n">
         <f aca="false">_xlfn.IFS(H460="W", F460*G460-F460, H460="L", -F460, H460="V", 0, H460="","")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="J460" s="44"/>
       <c r="K460" s="21"/>
@@ -24918,13 +24970,15 @@
       <c r="G461" s="47" t="n">
         <v>2.3</v>
       </c>
-      <c r="H461" s="48"/>
-      <c r="I461" s="23" t="str">
+      <c r="H461" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I461" s="23" t="n">
         <f aca="false">_xlfn.IFS(H461="W", F461*G461-F461, H461="L", -F461, H461="V", 0, H461="","")</f>
-        <v/>
+        <v>23.075</v>
       </c>
       <c r="J461" s="44" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K461" s="21"/>
       <c r="L461" s="25"/>
@@ -24952,7 +25006,7 @@
         <v>63</v>
       </c>
       <c r="D462" s="44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E462" s="45" t="n">
         <v>0.916666666666667</v>
@@ -24963,10 +25017,12 @@
       <c r="G462" s="47" t="n">
         <v>1.03</v>
       </c>
-      <c r="H462" s="48"/>
-      <c r="I462" s="23" t="str">
+      <c r="H462" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I462" s="23" t="n">
         <f aca="false">_xlfn.IFS(H462="W", F462*G462-F462, H462="L", -F462, H462="V", 0, H462="","")</f>
-        <v/>
+        <v>0.600000000000001</v>
       </c>
       <c r="J462" s="44"/>
       <c r="K462" s="21"/>
@@ -25006,10 +25062,12 @@
       <c r="G463" s="47" t="n">
         <v>3.5</v>
       </c>
-      <c r="H463" s="48"/>
-      <c r="I463" s="23" t="str">
+      <c r="H463" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I463" s="23" t="n">
         <f aca="false">_xlfn.IFS(H463="W", F463*G463-F463, H463="L", -F463, H463="V", 0, H463="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J463" s="44" t="s">
         <v>30</v>
@@ -25031,7 +25089,7 @@
       <c r="Y463" s="25"/>
       <c r="Z463" s="25"/>
     </row>
-    <row r="464" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="41"/>
       <c r="B464" s="42" t="s">
         <v>15</v>
@@ -25051,10 +25109,12 @@
       <c r="G464" s="47" t="n">
         <v>3.5</v>
       </c>
-      <c r="H464" s="48"/>
-      <c r="I464" s="23" t="str">
+      <c r="H464" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I464" s="23" t="n">
         <f aca="false">_xlfn.IFS(H464="W", F464*G464-F464, H464="L", -F464, H464="V", 0, H464="","")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J464" s="44" t="s">
         <v>30</v>
@@ -25078,16 +25138,30 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="41"/>
-      <c r="B465" s="42"/>
-      <c r="C465" s="43"/>
-      <c r="D465" s="44"/>
-      <c r="E465" s="45"/>
-      <c r="F465" s="46"/>
-      <c r="G465" s="47"/>
-      <c r="H465" s="48"/>
-      <c r="I465" s="23" t="str">
+      <c r="B465" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C465" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D465" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E465" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F465" s="46" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="G465" s="47" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H465" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I465" s="23" t="n">
         <f aca="false">_xlfn.IFS(H465="W", F465*G465-F465, H465="L", -F465, H465="V", 0, H465="","")</f>
-        <v/>
+        <v>-73.34</v>
       </c>
       <c r="J465" s="44"/>
       <c r="K465" s="21"/>
@@ -25109,16 +25183,30 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="41"/>
-      <c r="B466" s="42"/>
-      <c r="C466" s="43"/>
-      <c r="D466" s="44"/>
-      <c r="E466" s="45"/>
-      <c r="F466" s="46"/>
-      <c r="G466" s="47"/>
-      <c r="H466" s="48"/>
-      <c r="I466" s="23" t="str">
+      <c r="B466" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C466" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D466" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E466" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F466" s="46" t="n">
+        <v>105</v>
+      </c>
+      <c r="G466" s="47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H466" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I466" s="23" t="n">
         <f aca="false">_xlfn.IFS(H466="W", F466*G466-F466, H466="L", -F466, H466="V", 0, H466="","")</f>
-        <v/>
+        <v>139.65</v>
       </c>
       <c r="J466" s="44"/>
       <c r="K466" s="21"/>
@@ -25140,18 +25228,34 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="41"/>
-      <c r="B467" s="42"/>
-      <c r="C467" s="43"/>
-      <c r="D467" s="44"/>
-      <c r="E467" s="45"/>
-      <c r="F467" s="46"/>
-      <c r="G467" s="47"/>
-      <c r="H467" s="48"/>
-      <c r="I467" s="23" t="str">
+      <c r="B467" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C467" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D467" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E467" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F467" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G467" s="47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H467" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I467" s="23" t="n">
         <f aca="false">_xlfn.IFS(H467="W", F467*G467-F467, H467="L", -F467, H467="V", 0, H467="","")</f>
-        <v/>
-      </c>
-      <c r="J467" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="J467" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="K467" s="21"/>
       <c r="L467" s="25"/>
       <c r="M467" s="25"/>
@@ -25171,18 +25275,34 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="41"/>
-      <c r="B468" s="42"/>
-      <c r="C468" s="43"/>
-      <c r="D468" s="44"/>
-      <c r="E468" s="45"/>
-      <c r="F468" s="46"/>
-      <c r="G468" s="47"/>
-      <c r="H468" s="48"/>
-      <c r="I468" s="23" t="str">
+      <c r="B468" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C468" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D468" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E468" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F468" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="G468" s="47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H468" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I468" s="23" t="n">
         <f aca="false">_xlfn.IFS(H468="W", F468*G468-F468, H468="L", -F468, H468="V", 0, H468="","")</f>
-        <v/>
-      </c>
-      <c r="J468" s="44"/>
+        <v>-11</v>
+      </c>
+      <c r="J468" s="44" t="s">
+        <v>404</v>
+      </c>
       <c r="K468" s="21"/>
       <c r="L468" s="25"/>
       <c r="M468" s="25"/>
@@ -25202,18 +25322,34 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="41"/>
-      <c r="B469" s="42"/>
-      <c r="C469" s="43"/>
-      <c r="D469" s="44"/>
-      <c r="E469" s="45"/>
-      <c r="F469" s="46"/>
-      <c r="G469" s="47"/>
-      <c r="H469" s="48"/>
-      <c r="I469" s="23" t="str">
+      <c r="B469" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C469" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D469" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="E469" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F469" s="46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G469" s="47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H469" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I469" s="23" t="n">
         <f aca="false">_xlfn.IFS(H469="W", F469*G469-F469, H469="L", -F469, H469="V", 0, H469="","")</f>
-        <v/>
-      </c>
-      <c r="J469" s="44"/>
+        <v>23</v>
+      </c>
+      <c r="J469" s="44" t="s">
+        <v>406</v>
+      </c>
       <c r="K469" s="21"/>
       <c r="L469" s="25"/>
       <c r="M469" s="25"/>
@@ -25233,16 +25369,30 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="41"/>
-      <c r="B470" s="42"/>
-      <c r="C470" s="43"/>
-      <c r="D470" s="44"/>
-      <c r="E470" s="45"/>
-      <c r="F470" s="46"/>
-      <c r="G470" s="47"/>
-      <c r="H470" s="48"/>
-      <c r="I470" s="23" t="str">
+      <c r="B470" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C470" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D470" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E470" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F470" s="46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G470" s="47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H470" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I470" s="23" t="n">
         <f aca="false">_xlfn.IFS(H470="W", F470*G470-F470, H470="L", -F470, H470="V", 0, H470="","")</f>
-        <v/>
+        <v>-1.25</v>
       </c>
       <c r="J470" s="44"/>
       <c r="K470" s="21"/>
@@ -25264,16 +25414,30 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="41"/>
-      <c r="B471" s="42"/>
-      <c r="C471" s="43"/>
-      <c r="D471" s="44"/>
-      <c r="E471" s="45"/>
-      <c r="F471" s="46"/>
-      <c r="G471" s="47"/>
-      <c r="H471" s="48"/>
-      <c r="I471" s="23" t="str">
+      <c r="B471" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C471" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D471" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E471" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F471" s="46" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G471" s="47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H471" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I471" s="23" t="n">
         <f aca="false">_xlfn.IFS(H471="W", F471*G471-F471, H471="L", -F471, H471="V", 0, H471="","")</f>
-        <v/>
+        <v>-0.49</v>
       </c>
       <c r="J471" s="44"/>
       <c r="K471" s="21"/>
@@ -25295,16 +25459,30 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="41"/>
-      <c r="B472" s="42"/>
-      <c r="C472" s="43"/>
-      <c r="D472" s="44"/>
-      <c r="E472" s="45"/>
-      <c r="F472" s="46"/>
-      <c r="G472" s="47"/>
-      <c r="H472" s="48"/>
-      <c r="I472" s="23" t="str">
+      <c r="B472" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C472" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D472" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E472" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F472" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="G472" s="47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H472" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I472" s="23" t="n">
         <f aca="false">_xlfn.IFS(H472="W", F472*G472-F472, H472="L", -F472, H472="V", 0, H472="","")</f>
-        <v/>
+        <v>-11</v>
       </c>
       <c r="J472" s="44"/>
       <c r="K472" s="21"/>
@@ -25326,18 +25504,34 @@
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="41"/>
-      <c r="B473" s="42"/>
-      <c r="C473" s="43"/>
-      <c r="D473" s="44"/>
-      <c r="E473" s="45"/>
-      <c r="F473" s="46"/>
-      <c r="G473" s="47"/>
-      <c r="H473" s="48"/>
-      <c r="I473" s="23" t="str">
+      <c r="B473" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C473" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D473" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E473" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F473" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G473" s="47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H473" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I473" s="23" t="n">
         <f aca="false">_xlfn.IFS(H473="W", F473*G473-F473, H473="L", -F473, H473="V", 0, H473="","")</f>
-        <v/>
-      </c>
-      <c r="J473" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="J473" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="K473" s="21"/>
       <c r="L473" s="25"/>
       <c r="M473" s="25"/>
@@ -25357,16 +25551,30 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="41"/>
-      <c r="B474" s="42"/>
-      <c r="C474" s="43"/>
-      <c r="D474" s="44"/>
-      <c r="E474" s="45"/>
-      <c r="F474" s="46"/>
-      <c r="G474" s="47"/>
-      <c r="H474" s="48"/>
-      <c r="I474" s="23" t="str">
+      <c r="B474" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C474" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D474" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E474" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F474" s="46" t="n">
+        <v>100</v>
+      </c>
+      <c r="G474" s="47" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H474" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I474" s="23" t="n">
         <f aca="false">_xlfn.IFS(H474="W", F474*G474-F474, H474="L", -F474, H474="V", 0, H474="","")</f>
-        <v/>
+        <v>131</v>
       </c>
       <c r="J474" s="44"/>
       <c r="K474" s="21"/>
@@ -25388,16 +25596,30 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="41"/>
-      <c r="B475" s="42"/>
-      <c r="C475" s="43"/>
-      <c r="D475" s="44"/>
-      <c r="E475" s="45"/>
-      <c r="F475" s="46"/>
-      <c r="G475" s="47"/>
-      <c r="H475" s="48"/>
-      <c r="I475" s="23" t="str">
+      <c r="B475" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C475" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="D475" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="E475" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F475" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="G475" s="47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H475" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I475" s="23" t="n">
         <f aca="false">_xlfn.IFS(H475="W", F475*G475-F475, H475="L", -F475, H475="V", 0, H475="","")</f>
-        <v/>
+        <v>-30</v>
       </c>
       <c r="J475" s="44"/>
       <c r="K475" s="21"/>
@@ -25419,16 +25641,30 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="41"/>
-      <c r="B476" s="42"/>
-      <c r="C476" s="43"/>
-      <c r="D476" s="44"/>
-      <c r="E476" s="45"/>
-      <c r="F476" s="46"/>
-      <c r="G476" s="47"/>
-      <c r="H476" s="48"/>
-      <c r="I476" s="23" t="str">
+      <c r="B476" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C476" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D476" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="E476" s="45" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F476" s="46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G476" s="47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H476" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I476" s="23" t="n">
         <f aca="false">_xlfn.IFS(H476="W", F476*G476-F476, H476="L", -F476, H476="V", 0, H476="","")</f>
-        <v/>
+        <v>2.2</v>
       </c>
       <c r="J476" s="44"/>
       <c r="K476" s="21"/>
@@ -25450,18 +25686,34 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="41"/>
-      <c r="B477" s="42"/>
-      <c r="C477" s="43"/>
-      <c r="D477" s="44"/>
-      <c r="E477" s="45"/>
-      <c r="F477" s="46"/>
-      <c r="G477" s="47"/>
-      <c r="H477" s="48"/>
-      <c r="I477" s="23" t="str">
+      <c r="B477" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C477" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D477" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E477" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F477" s="46" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="G477" s="47" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H477" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I477" s="23" t="n">
         <f aca="false">_xlfn.IFS(H477="W", F477*G477-F477, H477="L", -F477, H477="V", 0, H477="","")</f>
-        <v/>
-      </c>
-      <c r="J477" s="44"/>
+        <v>20.4204</v>
+      </c>
+      <c r="J477" s="44" t="s">
+        <v>408</v>
+      </c>
       <c r="K477" s="21"/>
       <c r="L477" s="25"/>
       <c r="M477" s="25"/>
@@ -25481,18 +25733,34 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="41"/>
-      <c r="B478" s="42"/>
-      <c r="C478" s="43"/>
-      <c r="D478" s="44"/>
-      <c r="E478" s="45"/>
-      <c r="F478" s="46"/>
-      <c r="G478" s="47"/>
-      <c r="H478" s="48"/>
-      <c r="I478" s="23" t="str">
+      <c r="B478" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C478" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D478" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="E478" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F478" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G478" s="47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H478" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I478" s="23" t="n">
         <f aca="false">_xlfn.IFS(H478="W", F478*G478-F478, H478="L", -F478, H478="V", 0, H478="","")</f>
-        <v/>
-      </c>
-      <c r="J478" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="J478" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="K478" s="21"/>
       <c r="L478" s="25"/>
       <c r="M478" s="25"/>
@@ -25512,16 +25780,30 @@
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="41"/>
-      <c r="B479" s="42"/>
-      <c r="C479" s="43"/>
-      <c r="D479" s="44"/>
-      <c r="E479" s="45"/>
-      <c r="F479" s="46"/>
-      <c r="G479" s="47"/>
-      <c r="H479" s="48"/>
-      <c r="I479" s="23" t="str">
+      <c r="B479" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C479" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D479" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="E479" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F479" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G479" s="47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H479" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I479" s="23" t="n">
         <f aca="false">_xlfn.IFS(H479="W", F479*G479-F479, H479="L", -F479, H479="V", 0, H479="","")</f>
-        <v/>
+        <v>-10</v>
       </c>
       <c r="J479" s="44"/>
       <c r="K479" s="21"/>
@@ -25543,18 +25825,34 @@
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="41"/>
-      <c r="B480" s="42"/>
-      <c r="C480" s="43"/>
-      <c r="D480" s="44"/>
-      <c r="E480" s="45"/>
-      <c r="F480" s="46"/>
-      <c r="G480" s="47"/>
-      <c r="H480" s="48"/>
-      <c r="I480" s="23" t="str">
+      <c r="B480" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C480" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="E480" s="45" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F480" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G480" s="47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H480" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I480" s="23" t="n">
         <f aca="false">_xlfn.IFS(H480="W", F480*G480-F480, H480="L", -F480, H480="V", 0, H480="","")</f>
-        <v/>
-      </c>
-      <c r="J480" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="J480" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="K480" s="21"/>
       <c r="L480" s="25"/>
       <c r="M480" s="25"/>
@@ -25574,16 +25872,30 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="41"/>
-      <c r="B481" s="42"/>
-      <c r="C481" s="43"/>
-      <c r="D481" s="44"/>
-      <c r="E481" s="45"/>
-      <c r="F481" s="46"/>
-      <c r="G481" s="47"/>
-      <c r="H481" s="48"/>
-      <c r="I481" s="23" t="str">
+      <c r="B481" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C481" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D481" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E481" s="45" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F481" s="46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G481" s="47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H481" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I481" s="23" t="n">
         <f aca="false">_xlfn.IFS(H481="W", F481*G481-F481, H481="L", -F481, H481="V", 0, H481="","")</f>
-        <v/>
+        <v>-20</v>
       </c>
       <c r="J481" s="44"/>
       <c r="K481" s="21"/>
@@ -25605,18 +25917,34 @@
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="41"/>
-      <c r="B482" s="42"/>
-      <c r="C482" s="43"/>
-      <c r="D482" s="44"/>
-      <c r="E482" s="45"/>
-      <c r="F482" s="46"/>
-      <c r="G482" s="47"/>
-      <c r="H482" s="48"/>
-      <c r="I482" s="23" t="str">
+      <c r="B482" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C482" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D482" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="E482" s="45" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F482" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G482" s="47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H482" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I482" s="23" t="n">
         <f aca="false">_xlfn.IFS(H482="W", F482*G482-F482, H482="L", -F482, H482="V", 0, H482="","")</f>
-        <v/>
-      </c>
-      <c r="J482" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="J482" s="44" t="s">
+        <v>140</v>
+      </c>
       <c r="K482" s="21"/>
       <c r="L482" s="25"/>
       <c r="M482" s="25"/>
@@ -25634,8 +25962,10 @@
       <c r="Y482" s="25"/>
       <c r="Z482" s="25"/>
     </row>
-    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="41"/>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="41" t="n">
+        <v>43892</v>
+      </c>
       <c r="B483" s="42"/>
       <c r="C483" s="43"/>
       <c r="D483" s="44"/>
@@ -25648,9 +25978,16 @@
         <v/>
       </c>
       <c r="J483" s="44"/>
-      <c r="K483" s="21"/>
-      <c r="L483" s="25"/>
-      <c r="M483" s="25"/>
+      <c r="K483" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="L483" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M483" s="34" t="n">
+        <f aca="false">SUM(I483:I535)</f>
+        <v>0</v>
+      </c>
       <c r="N483" s="25"/>
       <c r="O483" s="25"/>
       <c r="P483" s="49"/>
@@ -25665,7 +26002,7 @@
       <c r="Y483" s="25"/>
       <c r="Z483" s="25"/>
     </row>
-    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="41"/>
       <c r="B484" s="42"/>
       <c r="C484" s="43"/>
@@ -25679,9 +26016,16 @@
         <v/>
       </c>
       <c r="J484" s="44"/>
-      <c r="K484" s="21"/>
-      <c r="L484" s="25"/>
-      <c r="M484" s="25"/>
+      <c r="K484" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="L484" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M484" s="34" t="n">
+        <f aca="false">SUM(M483)</f>
+        <v>0</v>
+      </c>
       <c r="N484" s="25"/>
       <c r="O484" s="25"/>
       <c r="P484" s="49"/>
@@ -41809,10 +42153,10 @@
   <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="55"/>
@@ -42050,7 +42394,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="55" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="48"/>
@@ -42101,7 +42445,7 @@
         <v>-0.647500000000001</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="46"/>
@@ -42227,16 +42571,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="46"/>
@@ -42281,11 +42625,11 @@
       </c>
       <c r="C12" s="57" t="n">
         <f aca="false">A12*B12-B13-B12-B14</f>
-        <v>-56.7039</v>
+        <v>-113.7039</v>
       </c>
       <c r="D12" s="57" t="n">
         <f aca="false">(100*(1-(1/A12+1/A13+1/A14)))</f>
-        <v>-2.37097408540139</v>
+        <v>-0.905234284630763</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="46"/>
@@ -42323,14 +42667,14 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="57" t="n">
-        <v>3.58</v>
+        <v>3.7</v>
       </c>
       <c r="B13" s="57" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C13" s="57" t="n">
         <f aca="false">A13*B13-B13-B12-B14</f>
-        <v>-8.46999999999997</v>
+        <v>30.33</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="56"/>
@@ -42369,14 +42713,14 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="B14" s="57" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C14" s="57" t="n">
         <f aca="false">B14*A14-B14-B13-B12</f>
-        <v>21.93</v>
+        <v>52.4800000000001</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="56"/>
@@ -45279,13 +45623,12 @@
   <dimension ref="A1:Z505"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="61" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="62" width="11.88"/>
@@ -45295,13 +45638,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -45341,13 +45684,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D2" s="46" t="n">
         <v>2.34</v>
@@ -45369,8 +45712,8 @@
         <v>11</v>
       </c>
       <c r="J2" s="66" t="n">
-        <f aca="false">SUM(G2:G25)</f>
-        <v>57.56</v>
+        <f aca="false">SUM(G2:G500)</f>
+        <v>139.94</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -45391,13 +45734,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D3" s="46" t="n">
         <v>1.51</v>
@@ -45414,7 +45757,7 @@
       </c>
       <c r="H3" s="44"/>
       <c r="I3" s="44" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="J3" s="66" t="n">
         <f aca="false">SUM(G2:G25)</f>
@@ -45439,13 +45782,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D4" s="46" t="n">
         <v>0.4</v>
@@ -45484,13 +45827,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="D5" s="46" t="n">
         <v>10.24</v>
@@ -45510,7 +45853,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="66" t="n">
-        <f aca="false">SUM(G26:G100)</f>
+        <f aca="false">SUM(G26:G36)</f>
         <v>82.38</v>
       </c>
       <c r="K5" s="22"/>
@@ -45532,13 +45875,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D6" s="46" t="n">
         <v>2.14</v>
@@ -45575,13 +45918,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="55" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D7" s="46" t="n">
         <v>0.7</v>
@@ -45621,13 +45964,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="55" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D8" s="46" t="n">
         <v>1.47</v>
@@ -45664,13 +46007,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D9" s="46" t="n">
         <v>17.31</v>
@@ -45711,7 +46054,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D10" s="46" t="n">
         <v>10</v>
@@ -45748,13 +46091,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="55" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B11" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D11" s="46" t="n">
         <v>4.35</v>
@@ -45791,13 +46134,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="55" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D12" s="46" t="n">
         <v>0</v>
@@ -45834,13 +46177,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D13" s="46" t="n">
         <v>7.03</v>
@@ -45880,13 +46223,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D14" s="46" t="n">
         <v>0</v>
@@ -45926,13 +46269,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D15" s="46" t="n">
         <v>2.75</v>
@@ -45972,13 +46315,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D16" s="46" t="n">
         <v>0.24</v>
@@ -46018,13 +46361,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D17" s="46" t="n">
         <v>1.07</v>
@@ -46064,13 +46407,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="D18" s="46" t="n">
         <v>1.4</v>
@@ -46110,13 +46453,13 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D19" s="46" t="n">
         <v>9.82</v>
@@ -46156,13 +46499,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="55" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D20" s="46" t="n">
         <v>8.48</v>
@@ -46202,13 +46545,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D21" s="46" t="n">
         <v>2.96</v>
@@ -46248,13 +46591,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="55" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="D22" s="46" t="n">
         <v>4.98</v>
@@ -46294,13 +46637,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="55" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D23" s="46" t="n">
         <v>1.63</v>
@@ -46340,13 +46683,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="55" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D24" s="46" t="n">
         <v>0.72</v>
@@ -46386,13 +46729,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D25" s="46" t="n">
         <v>0.3</v>
@@ -46432,13 +46775,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D26" s="46" t="n">
         <v>4</v>
@@ -46478,13 +46821,13 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="55" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D27" s="46" t="n">
         <v>8.12</v>
@@ -46524,13 +46867,13 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="55" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>384</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="D28" s="46" t="n">
         <v>0.5</v>
@@ -46570,13 +46913,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D29" s="46" t="n">
         <v>0.89</v>
@@ -46616,13 +46959,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="55" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D30" s="46" t="n">
         <v>4.5</v>
@@ -46662,13 +47005,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D31" s="46" t="n">
         <v>1.34</v>
@@ -46708,13 +47051,13 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="55" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D32" s="46" t="n">
         <v>0.15</v>
@@ -46754,13 +47097,13 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="55" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D33" s="46" t="n">
         <v>1.8</v>
@@ -46800,13 +47143,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="55" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B34" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D34" s="46" t="n">
         <v>2.35</v>
@@ -46846,13 +47189,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="55" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D35" s="46" t="n">
         <v>65</v>
@@ -46892,13 +47235,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="55" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D36" s="46" t="n">
         <v>1.73</v>
@@ -61607,11 +61950,11 @@
   </sheetPr>
   <dimension ref="A1:BE119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="71" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="71" width="16.87"/>
@@ -61630,40 +61973,40 @@
   <sheetData>
     <row r="1" s="93" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="82" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B1" s="82" t="n">
         <v>2019</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="L1" s="89" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="M1" s="91" t="s">
         <v>11</v>
@@ -61692,7 +62035,7 @@
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E2" s="97" t="n">
         <v>100</v>
@@ -61713,11 +62056,11 @@
       </c>
       <c r="L2" s="101"/>
       <c r="M2" s="91" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="N2" s="103" t="n">
         <f aca="false">SUM(G2:G100)</f>
-        <v>33.1</v>
+        <v>34.6</v>
       </c>
       <c r="O2" s="104"/>
       <c r="P2" s="104"/>
@@ -61739,7 +62082,7 @@
       </c>
       <c r="C3" s="95"/>
       <c r="D3" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E3" s="97" t="n">
         <v>100</v>
@@ -61786,7 +62129,7 @@
         <v>300</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E4" s="97" t="n">
         <v>100</v>
@@ -61831,7 +62174,7 @@
       </c>
       <c r="C5" s="95"/>
       <c r="D5" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E5" s="97"/>
       <c r="F5" s="98" t="n">
@@ -61880,7 +62223,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E6" s="97"/>
       <c r="F6" s="98" t="n">
@@ -61927,7 +62270,7 @@
       </c>
       <c r="C7" s="95"/>
       <c r="D7" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E7" s="97" t="n">
         <v>150</v>
@@ -61974,7 +62317,7 @@
         <v>289.39</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E8" s="97" t="n">
         <v>139.39</v>
@@ -62019,7 +62362,7 @@
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E9" s="97"/>
       <c r="F9" s="98" t="n">
@@ -62068,7 +62411,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E10" s="97"/>
       <c r="F10" s="98" t="n">
@@ -62115,7 +62458,7 @@
       </c>
       <c r="C11" s="95"/>
       <c r="D11" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E11" s="97" t="n">
         <v>120</v>
@@ -62162,7 +62505,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="E12" s="97" t="n">
         <v>120</v>
@@ -62207,7 +62550,7 @@
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E13" s="97"/>
       <c r="F13" s="98" t="n">
@@ -62256,7 +62599,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="E14" s="97"/>
       <c r="F14" s="98" t="n">
@@ -62303,7 +62646,7 @@
       </c>
       <c r="C15" s="95"/>
       <c r="D15" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E15" s="97" t="n">
         <v>100</v>
@@ -62348,7 +62691,7 @@
       </c>
       <c r="C16" s="95"/>
       <c r="D16" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E16" s="97" t="n">
         <v>120</v>
@@ -62393,7 +62736,7 @@
       </c>
       <c r="C17" s="95"/>
       <c r="D17" s="96" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="E17" s="97" t="n">
         <v>100</v>
@@ -62438,7 +62781,7 @@
       </c>
       <c r="C18" s="95"/>
       <c r="D18" s="96" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E18" s="97" t="n">
         <v>100</v>
@@ -62481,7 +62824,7 @@
       <c r="B19" s="94"/>
       <c r="C19" s="95"/>
       <c r="D19" s="96" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E19" s="97" t="n">
         <v>100</v>
@@ -62523,12 +62866,22 @@
       <c r="A20" s="94"/>
       <c r="B20" s="94"/>
       <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="96" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="97" t="n">
+        <v>100</v>
+      </c>
       <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
+      <c r="G20" s="99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="100" t="n">
+        <v>197.817</v>
+      </c>
+      <c r="I20" s="101" t="n">
+        <v>0.50551814</v>
+      </c>
       <c r="J20" s="102"/>
       <c r="K20" s="98"/>
       <c r="L20" s="101" t="n">

--- a/bca20.xlsx
+++ b/bca20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bets 2020" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="545">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -1765,7 +1765,34 @@
     <t xml:space="preserve">Betsafe lyö 5e veto esports @ 1.50 saa 5e riskitön esports veto</t>
   </si>
   <si>
+    <t xml:space="preserve">Shakhtar Soligorsk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unibet, 4x 5e vetoa@1.40 → 5e free live bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(40.5€/40€)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neman Grodno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betwaylla Schalke Vs Vitality peliin 10€@1.25 antaa 10e ilmaisvedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2.5g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pelataan lauantaina 21.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitality ML + Astralis -1.5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00→</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betway 10e e-sports tupla osuu→ 5e ilmaisveto + 5 ilmaiskierrosta</t>
   </si>
   <si>
     <t xml:space="preserve">2-way</t>
@@ -1969,7 +1996,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="15">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-40B]DDD\ D&quot;/ &quot;MMM\ YY"/>
+    <numFmt numFmtId="165" formatCode="DDD\ D&quot;/ &quot;MMM\ YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="HH:MM"/>
     <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-1]"/>
@@ -1984,7 +2011,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00\ [$€-408];[RED]\-#,##0.00\ [$€-408]"/>
     <numFmt numFmtId="178" formatCode="#,##0.00\ [$€-46E];[RED]\-#,##0.00\ [$€-46E]"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="56">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2009,63 +2036,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFE9B913"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF3838"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2CEE0E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF5EB91E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF760000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF81D41A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00FFFD"/>
+      <color rgb="FF00EBFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2073,83 +2044,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00FFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFD0036"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFA0036"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFBD212E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF4000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1EFF00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFE8E8E8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00DC00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00EBFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2284,6 +2178,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF81D41A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2492,18 +2400,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9211E"/>
-        <bgColor rgb="FFBD212E"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2513,134 +2415,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF38"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF18A303"/>
-        <bgColor rgb="FF00A933"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8D281E"/>
-        <bgColor rgb="FFBD212E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2F3133"/>
-        <bgColor rgb="FF303030"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF9500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF292C31"/>
-        <bgColor rgb="FF303030"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF303030"/>
-        <bgColor rgb="FF2F3133"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF191D23"/>
-        <bgColor rgb="FF1B1E21"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF4472C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BC7A"/>
-        <bgColor rgb="FF00DD6E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008345"/>
-        <bgColor rgb="FF008915"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00512D"/>
-        <bgColor rgb="FF004D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF001328"/>
-        <bgColor rgb="FF191D23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF55308D"/>
-        <bgColor rgb="FF2F3133"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF18A303"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1B1E21"/>
-        <bgColor rgb="FF191D23"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008915"/>
-        <bgColor rgb="FF008400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DD6E"/>
-        <bgColor rgb="FF00BC7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9500"/>
-        <bgColor rgb="FFFF8000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008400"/>
-        <bgColor rgb="FF008915"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5000"/>
-        <bgColor rgb="FFFF4900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4900"/>
-        <bgColor rgb="FFFF5000"/>
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFFA0036"/>
       </patternFill>
     </fill>
     <fill>
@@ -2719,7 +2495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2743,155 +2519,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="14" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="15" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="16" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="17" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="18" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="20" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="21" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="22" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="23" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="24" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="25" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2899,7 +2561,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2907,167 +2569,175 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3075,115 +2745,107 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="44" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3191,286 +2853,184 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="44" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="45" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="51" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="52" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="54" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="49" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="51" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="52" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="55" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="55" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="57" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="58" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="59" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="61" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="62" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="63" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="57" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="64" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="65" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="68" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="69" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="64" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="71" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="64" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="64" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="65" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="68" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="69" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="64" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="72" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="72" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="44">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="&quot;L&quot;" xfId="20"/>
-    <cellStyle name="&quot;Lose&quot;" xfId="21"/>
-    <cellStyle name="&quot;V&quot;" xfId="22"/>
-    <cellStyle name="&quot;W&quot;" xfId="23"/>
-    <cellStyle name="&quot;Win&quot;" xfId="24"/>
-    <cellStyle name="Betsafe" xfId="25"/>
-    <cellStyle name="BetsafeReal" xfId="26"/>
-    <cellStyle name="Betsson" xfId="27"/>
-    <cellStyle name="Betway" xfId="28"/>
-    <cellStyle name="ComeOn" xfId="29"/>
-    <cellStyle name="Coolbet" xfId="30"/>
-    <cellStyle name="CoolbetReal" xfId="31"/>
-    <cellStyle name="häviiiiiö" xfId="32"/>
-    <cellStyle name="Häviö" xfId="33"/>
-    <cellStyle name="häviöreal" xfId="34"/>
-    <cellStyle name="Losing" xfId="35"/>
-    <cellStyle name="OikePAF" xfId="36"/>
-    <cellStyle name="Paf" xfId="37"/>
-    <cellStyle name="Pafreal" xfId="38"/>
-    <cellStyle name="Pinnacle" xfId="39"/>
-    <cellStyle name="Tonybet" xfId="40"/>
-    <cellStyle name="Tyhjä" xfId="41"/>
-    <cellStyle name="Unibet" xfId="42"/>
-    <cellStyle name="Untitled1" xfId="43"/>
-    <cellStyle name="Untitled10" xfId="44"/>
-    <cellStyle name="Untitled11" xfId="45"/>
-    <cellStyle name="Untitled12" xfId="46"/>
-    <cellStyle name="Untitled13" xfId="47"/>
-    <cellStyle name="Untitled2" xfId="48"/>
-    <cellStyle name="Untitled3" xfId="49"/>
-    <cellStyle name="Untitled4" xfId="50"/>
-    <cellStyle name="Untitled5" xfId="51"/>
-    <cellStyle name="Untitled6" xfId="52"/>
-    <cellStyle name="Untitled7" xfId="53"/>
-    <cellStyle name="Untitled8" xfId="54"/>
-    <cellStyle name="Untitled9" xfId="55"/>
-    <cellStyle name="Void" xfId="56"/>
-    <cellStyle name="VVOID" xfId="57"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="18">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -3699,7 +3259,6 @@
         <outline val="0"/>
         <shadow val="0"/>
         <color rgb="FFFA0036"/>
-        <sz val="10"/>
         <u val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="General"/>
@@ -3755,35 +3314,6 @@
         <diagonal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF5EB91E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FFFF3838"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -3791,56 +3321,56 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF00512D"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFDC0087"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF760000"/>
-      <rgbColor rgb="FF008400"/>
+      <rgbColor rgb="FF18A303"/>
       <rgbColor rgb="FF001328"/>
       <rgbColor rgb="FF468A1A"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008345"/>
-      <rgbColor rgb="FF2CEE0E"/>
-      <rgbColor rgb="FF18A303"/>
-      <rgbColor rgb="FF729FCF"/>
-      <rgbColor rgb="FFBD212E"/>
-      <rgbColor rgb="FFE8E8E8"/>
-      <rgbColor rgb="FF00FFEF"/>
-      <rgbColor rgb="FF1B1E21"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFFA0036"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF00A0FC"/>
-      <rgbColor rgb="FF00DD6E"/>
-      <rgbColor rgb="FF191D23"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFD0036"/>
       <rgbColor rgb="FFFFFF38"/>
-      <rgbColor rgb="FF00FFFD"/>
-      <rgbColor rgb="FFFF3838"/>
-      <rgbColor rgb="FFFA0036"/>
-      <rgbColor rgb="FF008915"/>
+      <rgbColor rgb="FF00FFFA"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00EBFF"/>
-      <rgbColor rgb="FF00DC00"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF1EFF00"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF00FFFA"/>
-      <rgbColor rgb="FFFF4900"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FF00FFEF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFE9B913"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF00BC7A"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFD428"/>
-      <rgbColor rgb="FFFF9500"/>
-      <rgbColor rgb="FFFF5000"/>
-      <rgbColor rgb="FF666666"/>
-      <rgbColor rgb="FF5EB91E"/>
-      <rgbColor rgb="FF292C31"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF2CEE0E"/>
+      <rgbColor rgb="FF191D23"/>
       <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF004D00"/>
-      <rgbColor rgb="FF303030"/>
-      <rgbColor rgb="FF8D281E"/>
+      <rgbColor rgb="FF292C31"/>
       <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF2F3133"/>
     </indexedColors>
@@ -3855,11 +3385,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A533" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G559" activeCellId="0" sqref="G559"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A533" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A559" activeCellId="0" sqref="A559"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.62"/>
@@ -3872,8 +3402,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="59.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="10" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="11.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="11.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3915,14 +3447,14 @@
       </c>
       <c r="M1" s="23" t="n">
         <f aca="false">SUM(I2:I2000)</f>
-        <v>356.7897</v>
+        <v>365.7897</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="23" t="n">
         <f aca="false">SUM(F2:F3500)</f>
-        <v>9278.35</v>
+        <v>9364.84</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>13</v>
@@ -29161,7 +28693,7 @@
       </c>
       <c r="M547" s="34" t="n">
         <f aca="false">SUM(I547:I591)</f>
-        <v>15.66</v>
+        <v>24.66</v>
       </c>
       <c r="N547" s="25"/>
       <c r="O547" s="25"/>
@@ -29213,7 +28745,7 @@
       </c>
       <c r="M548" s="34" t="n">
         <f aca="false">SUM(M483+M502+M547)</f>
-        <v>31.1001</v>
+        <v>40.1001</v>
       </c>
       <c r="N548" s="25"/>
       <c r="O548" s="25"/>
@@ -29343,12 +28875,14 @@
         <v>10</v>
       </c>
       <c r="G551" s="48" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H551" s="49"/>
-      <c r="I551" s="23" t="str">
+        <v>3.12</v>
+      </c>
+      <c r="H551" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I551" s="23" t="n">
         <f aca="false">_xlfn.IFS(H551="W", F551*G551-F551, H551="L", -F551, H551="V", 0, H551="","")</f>
-        <v/>
+        <v>21.2</v>
       </c>
       <c r="J551" s="45" t="s">
         <v>30</v>
@@ -29390,10 +28924,12 @@
       <c r="G552" s="48" t="n">
         <v>1.75</v>
       </c>
-      <c r="H552" s="49"/>
-      <c r="I552" s="23" t="str">
+      <c r="H552" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I552" s="23" t="n">
         <f aca="false">_xlfn.IFS(H552="W", F552*G552-F552, H552="L", -F552, H552="V", 0, H552="","")</f>
-        <v/>
+        <v>-12.2</v>
       </c>
       <c r="J552" s="45" t="s">
         <v>464</v>
@@ -29511,21 +29047,35 @@
       <c r="Y554" s="25"/>
       <c r="Z554" s="25"/>
     </row>
-    <row r="555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="42"/>
-      <c r="B555" s="43"/>
-      <c r="C555" s="44"/>
-      <c r="D555" s="45"/>
-      <c r="E555" s="46"/>
-      <c r="F555" s="47"/>
-      <c r="G555" s="48"/>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="42" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B555" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C555" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D555" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="E555" s="46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F555" s="47" t="n">
+        <v>20</v>
+      </c>
+      <c r="G555" s="48" t="n">
+        <v>3.04</v>
+      </c>
       <c r="H555" s="49"/>
       <c r="I555" s="23" t="str">
         <f aca="false">_xlfn.IFS(H555="W", F555*G555-F555, H555="L", -F555, H555="V", 0, H555="","")</f>
         <v/>
       </c>
       <c r="J555" s="45" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K555" s="21"/>
       <c r="L555" s="25"/>
@@ -29546,12 +29096,24 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="42"/>
-      <c r="B556" s="43"/>
-      <c r="C556" s="44"/>
-      <c r="D556" s="45"/>
-      <c r="E556" s="46"/>
-      <c r="F556" s="47"/>
-      <c r="G556" s="48"/>
+      <c r="B556" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C556" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D556" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="E556" s="46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F556" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G556" s="48" t="n">
+        <v>4.1</v>
+      </c>
       <c r="H556" s="49"/>
       <c r="I556" s="23" t="str">
         <f aca="false">_xlfn.IFS(H556="W", F556*G556-F556, H556="L", -F556, H556="V", 0, H556="","")</f>
@@ -29576,19 +29138,35 @@
       <c r="Z556" s="25"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="42"/>
-      <c r="B557" s="43"/>
-      <c r="C557" s="44"/>
-      <c r="D557" s="45"/>
-      <c r="E557" s="46"/>
-      <c r="F557" s="47"/>
-      <c r="G557" s="48"/>
+      <c r="A557" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="B557" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C557" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D557" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="E557" s="46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F557" s="47" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="G557" s="48" t="n">
+        <v>2.15</v>
+      </c>
       <c r="H557" s="49"/>
       <c r="I557" s="23" t="str">
         <f aca="false">_xlfn.IFS(H557="W", F557*G557-F557, H557="L", -F557, H557="V", 0, H557="","")</f>
         <v/>
       </c>
-      <c r="J557" s="45"/>
+      <c r="J557" s="45" t="s">
+        <v>474</v>
+      </c>
       <c r="K557" s="21"/>
       <c r="L557" s="25"/>
       <c r="M557" s="25"/>
@@ -29608,18 +29186,32 @@
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="42"/>
-      <c r="B558" s="43"/>
-      <c r="C558" s="44"/>
-      <c r="D558" s="45"/>
-      <c r="E558" s="46"/>
-      <c r="F558" s="47"/>
-      <c r="G558" s="48"/>
+      <c r="B558" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C558" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D558" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="E558" s="46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F558" s="47" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="G558" s="48" t="n">
+        <v>1.13</v>
+      </c>
       <c r="H558" s="49"/>
       <c r="I558" s="23" t="str">
         <f aca="false">_xlfn.IFS(H558="W", F558*G558-F558, H558="L", -F558, H558="V", 0, H558="","")</f>
         <v/>
       </c>
-      <c r="J558" s="45"/>
+      <c r="J558" s="45" t="s">
+        <v>476</v>
+      </c>
       <c r="K558" s="21"/>
       <c r="L558" s="25"/>
       <c r="M558" s="25"/>
@@ -29639,12 +29231,24 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="42"/>
-      <c r="B559" s="43"/>
-      <c r="C559" s="44"/>
-      <c r="D559" s="45"/>
-      <c r="E559" s="46"/>
-      <c r="F559" s="47"/>
-      <c r="G559" s="48"/>
+      <c r="B559" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C559" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D559" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="E559" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="F559" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G559" s="48" t="n">
+        <v>2.03</v>
+      </c>
       <c r="H559" s="49"/>
       <c r="I559" s="23" t="str">
         <f aca="false">_xlfn.IFS(H559="W", F559*G559-F559, H559="L", -F559, H559="V", 0, H559="","")</f>
@@ -29681,7 +29285,9 @@
         <f aca="false">_xlfn.IFS(H560="W", F560*G560-F560, H560="L", -F560, H560="V", 0, H560="","")</f>
         <v/>
       </c>
-      <c r="J560" s="45"/>
+      <c r="J560" s="45" t="s">
+        <v>479</v>
+      </c>
       <c r="K560" s="21"/>
       <c r="L560" s="25"/>
       <c r="M560" s="25"/>
@@ -43462,7 +43068,10 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.79"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="58"/>
@@ -43700,7 +43309,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="49"/>
@@ -43751,7 +43360,7 @@
         <v>-0.647500000000001</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="47"/>
@@ -43877,16 +43486,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="60" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="E11" s="59"/>
       <c r="F11" s="47"/>
@@ -46873,41 +46482,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H86">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H86">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H86">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H86">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I86">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C86 C1:C7 C10">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Coolbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"LSB"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Betsafe"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46928,29 +46537,34 @@
   </sheetPr>
   <dimension ref="A1:Z505"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="63" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="64" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="65" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="46.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="13.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -46990,13 +46604,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D2" s="47" t="n">
         <v>2.34</v>
@@ -47040,13 +46654,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D3" s="47" t="n">
         <v>1.51</v>
@@ -47063,7 +46677,7 @@
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="J3" s="69" t="n">
         <f aca="false">SUM(G2:G25)</f>
@@ -47088,13 +46702,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D4" s="47" t="n">
         <v>0.4</v>
@@ -47133,13 +46747,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>10.24</v>
@@ -47181,13 +46795,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D6" s="47" t="n">
         <v>2.14</v>
@@ -47224,13 +46838,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D7" s="47" t="n">
         <v>0.7</v>
@@ -47272,13 +46886,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D8" s="47" t="n">
         <v>1.47</v>
@@ -47315,13 +46929,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="58" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>17.31</v>
@@ -47362,7 +46976,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D10" s="47" t="n">
         <v>10</v>
@@ -47399,13 +47013,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D11" s="47" t="n">
         <v>4.35</v>
@@ -47442,13 +47056,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="58" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D12" s="47" t="n">
         <v>0</v>
@@ -47485,13 +47099,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="58" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>7.03</v>
@@ -47531,13 +47145,13 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="58" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>0</v>
@@ -47577,13 +47191,13 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="58" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D15" s="47" t="n">
         <v>2.75</v>
@@ -47623,13 +47237,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="58" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D16" s="47" t="n">
         <v>0.24</v>
@@ -47669,13 +47283,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="58" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D17" s="47" t="n">
         <v>1.07</v>
@@ -47715,13 +47329,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="58" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D18" s="47" t="n">
         <v>1.4</v>
@@ -47761,13 +47375,13 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="58" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>9.82</v>
@@ -47807,13 +47421,13 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="58" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>8.48</v>
@@ -47853,13 +47467,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="58" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D21" s="47" t="n">
         <v>2.96</v>
@@ -47899,13 +47513,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="58" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D22" s="47" t="n">
         <v>4.98</v>
@@ -47945,13 +47559,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="58" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D23" s="47" t="n">
         <v>1.63</v>
@@ -47991,13 +47605,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="58" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>0.72</v>
@@ -48037,13 +47651,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>0.3</v>
@@ -48083,13 +47697,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="58" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B26" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D26" s="47" t="n">
         <v>4</v>
@@ -48129,13 +47743,13 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="58" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D27" s="47" t="n">
         <v>8.12</v>
@@ -48175,13 +47789,13 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="58" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>384</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="D28" s="47" t="n">
         <v>0.5</v>
@@ -48221,13 +47835,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="58" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>99</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D29" s="47" t="n">
         <v>0.89</v>
@@ -48267,13 +47881,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="58" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B30" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D30" s="47" t="n">
         <v>4.5</v>
@@ -48313,13 +47927,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="58" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B31" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D31" s="47" t="n">
         <v>1.34</v>
@@ -48359,13 +47973,13 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="58" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D32" s="47" t="n">
         <v>0.15</v>
@@ -48405,13 +48019,13 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="58" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D33" s="47" t="n">
         <v>1.8</v>
@@ -48451,13 +48065,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="58" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D34" s="47" t="n">
         <v>2.35</v>
@@ -48497,13 +48111,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="58" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D35" s="47" t="n">
         <v>65</v>
@@ -48543,13 +48157,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="58" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="73" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>1.73</v>
@@ -48589,13 +48203,13 @@
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="58" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B37" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D37" s="47" t="n">
         <v>6.65</v>
@@ -48635,13 +48249,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="58" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D38" s="47" t="n">
         <v>3.02</v>
@@ -48681,13 +48295,13 @@
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="58" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D39" s="47" t="n">
         <v>5.35</v>
@@ -48727,13 +48341,13 @@
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="58" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D40" s="47" t="n">
         <v>1.5</v>
@@ -48773,13 +48387,13 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D41" s="47" t="n">
         <v>0.01</v>
@@ -48819,13 +48433,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="58" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B42" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D42" s="47" t="n">
         <v>0.7</v>
@@ -63260,36 +62874,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H505 F1">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H505 F1">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H505 F1">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5 G1 I2:I505">
-    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C505 B1:B5">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Coolbet"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"LSB"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Betsafe"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63304,12 +62918,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63328,13 +62942,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BE119"/>
+  <dimension ref="A1:BE69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="74" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="74" width="16.87"/>
@@ -63349,44 +62963,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="83" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="84" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="13" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="12.41"/>
   </cols>
   <sheetData>
     <row r="1" s="96" customFormat="true" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B1" s="85" t="n">
         <v>2019</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="H1" s="91" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="J1" s="93" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K1" s="89" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L1" s="92" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M1" s="94" t="s">
         <v>11</v>
@@ -63415,7 +63030,7 @@
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E2" s="100" t="n">
         <v>100</v>
@@ -63436,11 +63051,11 @@
       </c>
       <c r="L2" s="104"/>
       <c r="M2" s="94" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="N2" s="106" t="n">
         <f aca="false">SUM(G2:G100)</f>
-        <v>39.16</v>
+        <v>40.66</v>
       </c>
       <c r="O2" s="107"/>
       <c r="P2" s="107"/>
@@ -63462,7 +63077,7 @@
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E3" s="100" t="n">
         <v>100</v>
@@ -63509,7 +63124,7 @@
         <v>300</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E4" s="100" t="n">
         <v>100</v>
@@ -63554,7 +63169,7 @@
       </c>
       <c r="C5" s="98"/>
       <c r="D5" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E5" s="100"/>
       <c r="F5" s="101" t="n">
@@ -63603,7 +63218,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="101" t="n">
@@ -63650,7 +63265,7 @@
       </c>
       <c r="C7" s="98"/>
       <c r="D7" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E7" s="100" t="n">
         <v>150</v>
@@ -63697,7 +63312,7 @@
         <v>289.39</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E8" s="100" t="n">
         <v>139.39</v>
@@ -63742,7 +63357,7 @@
       </c>
       <c r="C9" s="98"/>
       <c r="D9" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="101" t="n">
@@ -63791,7 +63406,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="101" t="n">
@@ -63838,7 +63453,7 @@
       </c>
       <c r="C11" s="98"/>
       <c r="D11" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E11" s="100" t="n">
         <v>120</v>
@@ -63885,7 +63500,7 @@
         <v>240</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E12" s="100" t="n">
         <v>120</v>
@@ -63930,7 +63545,7 @@
       </c>
       <c r="C13" s="98"/>
       <c r="D13" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="101" t="n">
@@ -63979,7 +63594,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="101" t="n">
@@ -64026,7 +63641,7 @@
       </c>
       <c r="C15" s="98"/>
       <c r="D15" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E15" s="100" t="n">
         <v>100</v>
@@ -64071,7 +63686,7 @@
       </c>
       <c r="C16" s="98"/>
       <c r="D16" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E16" s="100" t="n">
         <v>120</v>
@@ -64116,7 +63731,7 @@
       </c>
       <c r="C17" s="98"/>
       <c r="D17" s="99" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E17" s="100" t="n">
         <v>100</v>
@@ -64161,7 +63776,7 @@
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E18" s="100" t="n">
         <v>100</v>
@@ -64204,7 +63819,7 @@
       <c r="B19" s="97"/>
       <c r="C19" s="98"/>
       <c r="D19" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E19" s="100" t="n">
         <v>100</v>
@@ -64249,7 +63864,7 @@
       </c>
       <c r="C20" s="98"/>
       <c r="D20" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E20" s="100" t="n">
         <v>100</v>
@@ -64294,7 +63909,7 @@
       </c>
       <c r="C21" s="98"/>
       <c r="D21" s="99" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="E21" s="100" t="n">
         <v>100</v>
@@ -64341,7 +63956,7 @@
         <v>820</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E22" s="100" t="n">
         <v>100</v>
@@ -64388,7 +64003,7 @@
         <v>820</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E23" s="100" t="n">
         <v>104.05</v>
@@ -64430,17 +64045,29 @@
       <c r="A24" s="97"/>
       <c r="B24" s="97"/>
       <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
+      <c r="D24" s="99" t="s">
+        <v>540</v>
+      </c>
+      <c r="E24" s="100" t="n">
+        <v>100</v>
+      </c>
       <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="G24" s="102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="103" t="n">
+        <v>5876.9</v>
+      </c>
+      <c r="I24" s="104" t="n">
+        <v>0.01701577</v>
+      </c>
       <c r="J24" s="105"/>
-      <c r="K24" s="101"/>
+      <c r="K24" s="101" t="n">
+        <v>99</v>
+      </c>
       <c r="L24" s="104" t="n">
         <f aca="false">SUM(L23+K24)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M24" s="107"/>
       <c r="N24" s="107"/>
@@ -64471,7 +64098,7 @@
       <c r="K25" s="101"/>
       <c r="L25" s="104" t="n">
         <f aca="false">SUM(L24+K25)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M25" s="107"/>
       <c r="N25" s="107"/>
@@ -64502,7 +64129,7 @@
       <c r="K26" s="101"/>
       <c r="L26" s="104" t="n">
         <f aca="false">SUM(L25+K26)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M26" s="107"/>
       <c r="N26" s="107"/>
@@ -64533,7 +64160,7 @@
       <c r="K27" s="101"/>
       <c r="L27" s="104" t="n">
         <f aca="false">SUM(L26+K27)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M27" s="107"/>
       <c r="N27" s="107"/>
@@ -64564,7 +64191,7 @@
       <c r="K28" s="114"/>
       <c r="L28" s="104" t="n">
         <f aca="false">SUM(L27+K28)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M28" s="107"/>
       <c r="N28" s="107"/>
@@ -64595,7 +64222,7 @@
       <c r="K29" s="114"/>
       <c r="L29" s="104" t="n">
         <f aca="false">SUM(L28+K29)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M29" s="107"/>
       <c r="N29" s="107"/>
@@ -64626,7 +64253,7 @@
       <c r="K30" s="114"/>
       <c r="L30" s="104" t="n">
         <f aca="false">SUM(L29+K30)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M30" s="107"/>
       <c r="N30" s="107"/>
@@ -64657,7 +64284,7 @@
       <c r="K31" s="114"/>
       <c r="L31" s="104" t="n">
         <f aca="false">SUM(L30+K31)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M31" s="107"/>
       <c r="N31" s="107"/>
@@ -64688,7 +64315,7 @@
       <c r="K32" s="114"/>
       <c r="L32" s="104" t="n">
         <f aca="false">SUM(L31+K32)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M32" s="107"/>
       <c r="N32" s="107"/>
@@ -64719,7 +64346,7 @@
       <c r="K33" s="114"/>
       <c r="L33" s="104" t="n">
         <f aca="false">SUM(L32+K33)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M33" s="107"/>
       <c r="N33" s="107"/>
@@ -64750,7 +64377,7 @@
       <c r="K34" s="114"/>
       <c r="L34" s="104" t="n">
         <f aca="false">SUM(L33+K34)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M34" s="107"/>
       <c r="N34" s="107"/>
@@ -64781,7 +64408,7 @@
       <c r="K35" s="114"/>
       <c r="L35" s="104" t="n">
         <f aca="false">SUM(L34+K35)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M35" s="107"/>
       <c r="N35" s="107"/>
@@ -64812,7 +64439,7 @@
       <c r="K36" s="114"/>
       <c r="L36" s="104" t="n">
         <f aca="false">SUM(L35+K36)</f>
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="M36" s="107"/>
       <c r="N36" s="107"/>
@@ -66109,623 +65736,61 @@
       <c r="BD64" s="123"/>
       <c r="BE64" s="123"/>
     </row>
-    <row r="65" s="124" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="125"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="129"/>
-      <c r="L65" s="134"/>
-    </row>
-    <row r="66" s="124" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="125"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="126"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="134"/>
-    </row>
-    <row r="67" s="124" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="125"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="126"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="129"/>
-      <c r="L67" s="134"/>
-    </row>
-    <row r="68" s="124" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="125"/>
-      <c r="B68" s="125"/>
-      <c r="C68" s="126"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="134"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="138"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="140"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="135"/>
-      <c r="B70" s="135"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="136"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="138"/>
-      <c r="H70" s="139"/>
-      <c r="I70" s="140"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="135"/>
-      <c r="B71" s="135"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="138"/>
-      <c r="H71" s="139"/>
-      <c r="I71" s="140"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="135"/>
-      <c r="B72" s="135"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="140"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="135"/>
-      <c r="B73" s="135"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="139"/>
-      <c r="I73" s="140"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="135"/>
-      <c r="B74" s="135"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="137"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="138"/>
-      <c r="H74" s="139"/>
-      <c r="I74" s="140"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="135"/>
-      <c r="B75" s="135"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="137"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="138"/>
-      <c r="H75" s="139"/>
-      <c r="I75" s="140"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="135"/>
-      <c r="B76" s="135"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="137"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="138"/>
-      <c r="H76" s="139"/>
-      <c r="I76" s="140"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="135"/>
-      <c r="B77" s="135"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="137"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="138"/>
-      <c r="H77" s="139"/>
-      <c r="I77" s="140"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="135"/>
-      <c r="B78" s="135"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="137"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="138"/>
-      <c r="H78" s="139"/>
-      <c r="I78" s="140"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="135"/>
-      <c r="B79" s="135"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="137"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="138"/>
-      <c r="H79" s="139"/>
-      <c r="I79" s="140"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="135"/>
-      <c r="B80" s="135"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="138"/>
-      <c r="H80" s="139"/>
-      <c r="I80" s="140"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="138"/>
-      <c r="H81" s="139"/>
-      <c r="I81" s="140"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="137"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="138"/>
-      <c r="H82" s="139"/>
-      <c r="I82" s="140"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="137"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="138"/>
-      <c r="H83" s="139"/>
-      <c r="I83" s="140"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="137"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="138"/>
-      <c r="H84" s="139"/>
-      <c r="I84" s="140"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="137"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="138"/>
-      <c r="H85" s="139"/>
-      <c r="I85" s="140"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="135"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="137"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="138"/>
-      <c r="H86" s="139"/>
-      <c r="I86" s="140"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="135"/>
-      <c r="B87" s="135"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="137"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="138"/>
-      <c r="H87" s="139"/>
-      <c r="I87" s="140"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="135"/>
-      <c r="B88" s="135"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="138"/>
-      <c r="H88" s="139"/>
-      <c r="I88" s="140"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="135"/>
-      <c r="B89" s="135"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="138"/>
-      <c r="H89" s="139"/>
-      <c r="I89" s="140"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="135"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="137"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="138"/>
-      <c r="H90" s="139"/>
-      <c r="I90" s="140"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="135"/>
-      <c r="B91" s="135"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="136"/>
-      <c r="E91" s="137"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="138"/>
-      <c r="H91" s="139"/>
-      <c r="I91" s="140"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="135"/>
-      <c r="B92" s="135"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="136"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="138"/>
-      <c r="H92" s="139"/>
-      <c r="I92" s="140"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="135"/>
-      <c r="B93" s="135"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="136"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="138"/>
-      <c r="H93" s="139"/>
-      <c r="I93" s="140"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="135"/>
-      <c r="B94" s="135"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="136"/>
-      <c r="E94" s="137"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="138"/>
-      <c r="H94" s="139"/>
-      <c r="I94" s="140"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="135"/>
-      <c r="B95" s="135"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="136"/>
-      <c r="E95" s="137"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="138"/>
-      <c r="H95" s="139"/>
-      <c r="I95" s="140"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="135"/>
-      <c r="B96" s="135"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="136"/>
-      <c r="E96" s="137"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="138"/>
-      <c r="H96" s="139"/>
-      <c r="I96" s="140"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="135"/>
-      <c r="B97" s="135"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="136"/>
-      <c r="E97" s="137"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="138"/>
-      <c r="H97" s="139"/>
-      <c r="I97" s="140"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="135"/>
-      <c r="B98" s="135"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="136"/>
-      <c r="E98" s="137"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="138"/>
-      <c r="H98" s="139"/>
-      <c r="I98" s="140"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="135"/>
-      <c r="B99" s="135"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="136"/>
-      <c r="E99" s="137"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="138"/>
-      <c r="H99" s="139"/>
-      <c r="I99" s="140"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="135"/>
-      <c r="B100" s="135"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="136"/>
-      <c r="E100" s="137"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="138"/>
-      <c r="H100" s="139"/>
-      <c r="I100" s="140"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="135"/>
-      <c r="B101" s="135"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="136"/>
-      <c r="E101" s="137"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="138"/>
-      <c r="H101" s="139"/>
-      <c r="I101" s="140"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="135"/>
-      <c r="B102" s="135"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="136"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="138"/>
-      <c r="H102" s="139"/>
-      <c r="I102" s="140"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="135"/>
-      <c r="B103" s="135"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="136"/>
-      <c r="E103" s="137"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="138"/>
-      <c r="H103" s="139"/>
-      <c r="I103" s="140"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="135"/>
-      <c r="B104" s="135"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="136"/>
-      <c r="E104" s="137"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="138"/>
-      <c r="H104" s="139"/>
-      <c r="I104" s="140"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="135"/>
-      <c r="B105" s="135"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="136"/>
-      <c r="E105" s="137"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="138"/>
-      <c r="H105" s="139"/>
-      <c r="I105" s="140"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="135"/>
-      <c r="B106" s="135"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="136"/>
-      <c r="E106" s="137"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="138"/>
-      <c r="H106" s="139"/>
-      <c r="I106" s="140"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="135"/>
-      <c r="B107" s="135"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="136"/>
-      <c r="E107" s="137"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="138"/>
-      <c r="H107" s="139"/>
-      <c r="I107" s="140"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="135"/>
-      <c r="B108" s="135"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="136"/>
-      <c r="E108" s="137"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="138"/>
-      <c r="H108" s="139"/>
-      <c r="I108" s="140"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="135"/>
-      <c r="B109" s="135"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="136"/>
-      <c r="E109" s="137"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="138"/>
-      <c r="H109" s="139"/>
-      <c r="I109" s="140"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="135"/>
-      <c r="B110" s="135"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="136"/>
-      <c r="E110" s="137"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="138"/>
-      <c r="H110" s="139"/>
-      <c r="I110" s="140"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="135"/>
-      <c r="B111" s="135"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="136"/>
-      <c r="E111" s="137"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="138"/>
-      <c r="H111" s="139"/>
-      <c r="I111" s="140"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="135"/>
-      <c r="B112" s="135"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="137"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="138"/>
-      <c r="H112" s="139"/>
-      <c r="I112" s="140"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="135"/>
-      <c r="B113" s="135"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="136"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="138"/>
-      <c r="H113" s="139"/>
-      <c r="I113" s="140"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="135"/>
-      <c r="B114" s="135"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="136"/>
-      <c r="E114" s="137"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="138"/>
-      <c r="H114" s="139"/>
-      <c r="I114" s="140"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="135"/>
-      <c r="B115" s="135"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="136"/>
-      <c r="E115" s="137"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="138"/>
-      <c r="H115" s="139"/>
-      <c r="I115" s="140"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="135"/>
-      <c r="B116" s="135"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="137"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="138"/>
-      <c r="H116" s="139"/>
-      <c r="I116" s="140"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="135"/>
-      <c r="B117" s="135"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="136"/>
-      <c r="E117" s="137"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="138"/>
-      <c r="H117" s="139"/>
-      <c r="I117" s="140"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="135"/>
-      <c r="B118" s="135"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="136"/>
-      <c r="E118" s="137"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="138"/>
-      <c r="H118" s="139"/>
-      <c r="I118" s="140"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="135"/>
-      <c r="B119" s="135"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="136"/>
-      <c r="E119" s="137"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="138"/>
-      <c r="H119" s="139"/>
-      <c r="I119" s="140"/>
-    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
